--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828687758862975</v>
+        <v>0.9828687758862967</v>
       </c>
       <c r="D2">
-        <v>1.004306321837439</v>
+        <v>1.004306321837438</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9587907003788144</v>
+        <v>0.9587907003788136</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.0372743876804</v>
       </c>
       <c r="J2">
-        <v>1.005574237519298</v>
+        <v>1.005574237519297</v>
       </c>
       <c r="K2">
         <v>1.015705987011191</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9708556513883666</v>
+        <v>0.9708556513883658</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990269129451063</v>
+        <v>0.9902691294510632</v>
       </c>
       <c r="D3">
         <v>1.009738736477457</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9948904372982803</v>
+        <v>0.9948904372982799</v>
       </c>
       <c r="D4">
-        <v>1.013132686407016</v>
+        <v>1.013132686407015</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9755384501532297</v>
+        <v>0.9755384501532292</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041297506485374</v>
       </c>
       <c r="J4">
-        <v>1.014425755494503</v>
+        <v>1.014425755494502</v>
       </c>
       <c r="K4">
-        <v>1.023075153809472</v>
+        <v>1.023075153809471</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9859413541714325</v>
+        <v>0.9859413541714319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967957245124861</v>
+        <v>0.996795724512486</v>
       </c>
       <c r="D5">
         <v>1.014532210521347</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9781877550490108</v>
+        <v>0.9781877550490106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04192659942237</v>
+        <v>1.041926599422371</v>
       </c>
       <c r="J5">
         <v>1.015824161589964</v>
       </c>
       <c r="K5">
-        <v>1.024238068670375</v>
+        <v>1.024238068670376</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9883253499653696</v>
+        <v>0.9883253499653695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9971134995264581</v>
+        <v>0.9971134995264561</v>
       </c>
       <c r="D6">
-        <v>1.014765643119663</v>
+        <v>1.014765643119661</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9786295126023499</v>
+        <v>0.9786295126023477</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042031275947088</v>
+        <v>1.042031275947087</v>
       </c>
       <c r="J6">
-        <v>1.016057267729242</v>
+        <v>1.01605726772924</v>
       </c>
       <c r="K6">
-        <v>1.024431879814643</v>
+        <v>1.024431879814641</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9887227968668986</v>
+        <v>0.9887227968668966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949160400880136</v>
+        <v>0.9949160400880153</v>
       </c>
       <c r="D7">
-        <v>1.013151492012441</v>
+        <v>1.013151492012443</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9755740585661953</v>
+        <v>0.9755740585661974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041305976702076</v>
+        <v>1.041305976702077</v>
       </c>
       <c r="J7">
-        <v>1.014444555565675</v>
+        <v>1.014444555565677</v>
       </c>
       <c r="K7">
-        <v>1.023090790618903</v>
+        <v>1.023090790618905</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.9859734014549725</v>
+        <v>0.9859734014549744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854059861230398</v>
+        <v>0.985405986123039</v>
       </c>
       <c r="D8">
-        <v>1.00616841690133</v>
+        <v>1.006168416901329</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9623305596023854</v>
+        <v>0.9623305596023843</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038130688188014</v>
       </c>
       <c r="J8">
-        <v>1.007446169128585</v>
+        <v>1.007446169128583</v>
       </c>
       <c r="K8">
-        <v>1.017265476356609</v>
+        <v>1.017265476356608</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9740461775361238</v>
+        <v>0.9740461775361228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9672381992830142</v>
+        <v>0.967238199283015</v>
       </c>
       <c r="D9">
-        <v>0.9928472071898227</v>
+        <v>0.9928472071898233</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9369038751587467</v>
+        <v>0.9369038751587466</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.031926836905064</v>
       </c>
       <c r="J9">
-        <v>0.9940033765811207</v>
+        <v>0.9940033765811215</v>
       </c>
       <c r="K9">
         <v>1.006057409365331</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
         <v>0.9511109177754425</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953967014577525</v>
+        <v>0.9539670145775256</v>
       </c>
       <c r="D10">
-        <v>0.9831393986478197</v>
+        <v>0.9831393986478203</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9181859238095651</v>
+        <v>0.9181859238095657</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027304926417446</v>
+        <v>1.027304926417447</v>
       </c>
       <c r="J10">
-        <v>0.9841340392555131</v>
+        <v>0.9841340392555137</v>
       </c>
       <c r="K10">
-        <v>0.99781989885332</v>
+        <v>0.9978198988533207</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.934208124374709</v>
+        <v>0.9342081243747093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478867436108316</v>
+        <v>0.9478867436108314</v>
       </c>
       <c r="D11">
-        <v>0.9786997877259206</v>
+        <v>0.9786997877259203</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9095591608770305</v>
+        <v>0.9095591608770301</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025166970874096</v>
       </c>
       <c r="J11">
-        <v>0.9796005341017456</v>
+        <v>0.9796005341017453</v>
       </c>
       <c r="K11">
-        <v>0.9940348932469376</v>
+        <v>0.9940348932469374</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9264150769520717</v>
+        <v>0.9264150769520711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455719974672419</v>
+        <v>0.9455719974672423</v>
       </c>
       <c r="D12">
-        <v>0.9770111039408722</v>
+        <v>0.9770111039408724</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9062655146760045</v>
+        <v>0.9062655146760052</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.024350086810949</v>
       </c>
       <c r="J12">
-        <v>0.9778728531246235</v>
+        <v>0.9778728531246237</v>
       </c>
       <c r="K12">
-        <v>0.9925923977748284</v>
+        <v>0.9925923977748288</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9234394858857357</v>
+        <v>0.923439485885736</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460711750198852</v>
+        <v>0.9460711750198847</v>
       </c>
       <c r="D13">
-        <v>0.9773751999427885</v>
+        <v>0.9773751999427877</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9069762522016681</v>
+        <v>0.9069762522016676</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024526381006854</v>
       </c>
       <c r="J13">
-        <v>0.9782455102239925</v>
+        <v>0.9782455102239918</v>
       </c>
       <c r="K13">
-        <v>0.9929035419543951</v>
+        <v>0.9929035419543943</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9240815982790542</v>
+        <v>0.9240815982790537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476965931354892</v>
+        <v>0.9476965931354887</v>
       </c>
       <c r="D14">
-        <v>0.9785610354299813</v>
+        <v>0.9785610354299811</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9092887992369598</v>
+        <v>0.9092887992369594</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025099925445671</v>
       </c>
       <c r="J14">
-        <v>0.9794586457617567</v>
+        <v>0.9794586457617562</v>
       </c>
       <c r="K14">
-        <v>0.9939164267943174</v>
+        <v>0.9939164267943172</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9261708270850962</v>
+        <v>0.9261708270850957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486904093626055</v>
+        <v>0.9486904093626061</v>
       </c>
       <c r="D15">
-        <v>0.979286281524068</v>
+        <v>0.9792862815240687</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.910701441968764</v>
+        <v>0.9107014419687649</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025450216752967</v>
       </c>
       <c r="J15">
-        <v>0.9802001487939364</v>
+        <v>0.9802001487939371</v>
       </c>
       <c r="K15">
-        <v>0.9945355260894967</v>
+        <v>0.9945355260894975</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.927447026418993</v>
+        <v>0.9274470264189939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9543630126383615</v>
+        <v>0.9543630126383619</v>
       </c>
       <c r="D16">
-        <v>0.98342872994718</v>
+        <v>0.9834287299471799</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9187465789127758</v>
+        <v>0.9187465789127754</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027443755849235</v>
       </c>
       <c r="J16">
-        <v>0.9844290552123255</v>
+        <v>0.9844290552123256</v>
       </c>
       <c r="K16">
         <v>0.998066192363731</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9347145514010231</v>
+        <v>0.9347145514010228</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9859612724107901</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9236463440250151</v>
+        <v>0.9236463440250146</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.000220011830443</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9391400958895388</v>
+        <v>0.9391400958895385</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.959817240798612</v>
+        <v>0.9598172407986122</v>
       </c>
       <c r="D18">
-        <v>0.9874160004996285</v>
+        <v>0.987416000499629</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9264547888143261</v>
+        <v>0.9264547888143265</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029350414571432</v>
       </c>
       <c r="J18">
-        <v>0.9884892358891268</v>
+        <v>0.9884892358891272</v>
       </c>
       <c r="K18">
-        <v>1.001455544093964</v>
+        <v>1.001455544093965</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9416764487576853</v>
+        <v>0.941676448757686</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604903253792241</v>
+        <v>0.9604903253792232</v>
       </c>
       <c r="D19">
-        <v>0.9879083296484663</v>
+        <v>0.9879083296484654</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9274042960086599</v>
+        <v>0.9274042960086589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029584971010622</v>
+        <v>1.029584971010621</v>
       </c>
       <c r="J19">
-        <v>0.9889898637175627</v>
+        <v>0.9889898637175618</v>
       </c>
       <c r="K19">
-        <v>1.001873413153436</v>
+        <v>1.001873413153435</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9425339125521162</v>
+        <v>0.9425339125521152</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574595118243562</v>
+        <v>0.9574595118243575</v>
       </c>
       <c r="D20">
-        <v>0.9856919054577996</v>
+        <v>0.9856919054578005</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9231258381138047</v>
+        <v>0.923125838113806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028527494360549</v>
+        <v>1.02852749436055</v>
       </c>
       <c r="J20">
-        <v>0.9867348584653349</v>
+        <v>0.9867348584653362</v>
       </c>
       <c r="K20">
-        <v>0.9999910994266662</v>
+        <v>0.9999910994266672</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.938669994671968</v>
+        <v>0.9386699946719692</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9472195559493292</v>
+        <v>0.9472195559493303</v>
       </c>
       <c r="D21">
-        <v>0.9782129671248156</v>
+        <v>0.9782129671248164</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9086103749135007</v>
+        <v>0.9086103749135014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024931678893297</v>
+        <v>1.024931678893298</v>
       </c>
       <c r="J21">
-        <v>0.9791026567718626</v>
+        <v>0.9791026567718637</v>
       </c>
       <c r="K21">
-        <v>0.9936192012428257</v>
+        <v>0.9936192012428268</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9255579222171754</v>
+        <v>0.9255579222171763</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9404518518146651</v>
+        <v>0.9404518518146662</v>
       </c>
       <c r="D22">
-        <v>0.9732788112875985</v>
+        <v>0.9732788112875994</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.8989602345480283</v>
+        <v>0.8989602345480292</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022537785990247</v>
       </c>
       <c r="J22">
-        <v>0.9740479511063042</v>
+        <v>0.9740479511063052</v>
       </c>
       <c r="K22">
-        <v>0.9893988790176244</v>
+        <v>0.9893988790176252</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9168394140161402</v>
+        <v>0.9168394140161413</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9440731221429466</v>
+        <v>0.9440731221429475</v>
       </c>
       <c r="D23">
-        <v>0.97591807290162</v>
+        <v>0.9759180729016208</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9041298439155175</v>
+        <v>0.9041298439155185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023820302551642</v>
+        <v>1.023820302551643</v>
       </c>
       <c r="J23">
-        <v>0.9767536161787226</v>
+        <v>0.9767536161787236</v>
       </c>
       <c r="K23">
-        <v>0.9916579081702563</v>
+        <v>0.9916579081702572</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9215100032422132</v>
+        <v>0.9215100032422143</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576260874599256</v>
+        <v>0.9576260874599242</v>
       </c>
       <c r="D24">
-        <v>0.9858136898974119</v>
+        <v>0.9858136898974108</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9233611845254217</v>
+        <v>0.9233611845254203</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028585699672519</v>
       </c>
       <c r="J24">
-        <v>0.9868588442363144</v>
+        <v>0.9868588442363131</v>
       </c>
       <c r="K24">
-        <v>1.000094598946935</v>
+        <v>1.000094598946934</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9388825515126303</v>
+        <v>0.9388825515126289</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9721219409624117</v>
+        <v>0.972121940962412</v>
       </c>
       <c r="D25">
-        <v>0.9964249954600638</v>
+        <v>0.9964249954600641</v>
       </c>
       <c r="E25">
         <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9437586342731654</v>
+        <v>0.9437586342731664</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.033610017976914</v>
       </c>
       <c r="J25">
-        <v>0.9976253676141204</v>
+        <v>0.9976253676141208</v>
       </c>
       <c r="K25">
         <v>1.009079063438915</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9572976383085439</v>
+        <v>0.9572976383085448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828687758862967</v>
+        <v>0.9828687758862975</v>
       </c>
       <c r="D2">
-        <v>1.004306321837438</v>
+        <v>1.004306321837439</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9587907003788136</v>
+        <v>0.9587907003788144</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.0372743876804</v>
       </c>
       <c r="J2">
-        <v>1.005574237519297</v>
+        <v>1.005574237519298</v>
       </c>
       <c r="K2">
         <v>1.015705987011191</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9708556513883658</v>
+        <v>0.9708556513883666</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9902691294510632</v>
+        <v>0.990269129451063</v>
       </c>
       <c r="D3">
         <v>1.009738736477457</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9948904372982799</v>
+        <v>0.9948904372982803</v>
       </c>
       <c r="D4">
-        <v>1.013132686407015</v>
+        <v>1.013132686407016</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9755384501532292</v>
+        <v>0.9755384501532297</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041297506485374</v>
       </c>
       <c r="J4">
-        <v>1.014425755494502</v>
+        <v>1.014425755494503</v>
       </c>
       <c r="K4">
-        <v>1.023075153809471</v>
+        <v>1.023075153809472</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9859413541714319</v>
+        <v>0.9859413541714325</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996795724512486</v>
+        <v>0.9967957245124861</v>
       </c>
       <c r="D5">
         <v>1.014532210521347</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9781877550490106</v>
+        <v>0.9781877550490108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041926599422371</v>
+        <v>1.04192659942237</v>
       </c>
       <c r="J5">
         <v>1.015824161589964</v>
       </c>
       <c r="K5">
-        <v>1.024238068670376</v>
+        <v>1.024238068670375</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9883253499653695</v>
+        <v>0.9883253499653696</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9971134995264561</v>
+        <v>0.9971134995264581</v>
       </c>
       <c r="D6">
-        <v>1.014765643119661</v>
+        <v>1.014765643119663</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9786295126023477</v>
+        <v>0.9786295126023499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042031275947087</v>
+        <v>1.042031275947088</v>
       </c>
       <c r="J6">
-        <v>1.01605726772924</v>
+        <v>1.016057267729242</v>
       </c>
       <c r="K6">
-        <v>1.024431879814641</v>
+        <v>1.024431879814643</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9887227968668966</v>
+        <v>0.9887227968668986</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949160400880153</v>
+        <v>0.9949160400880136</v>
       </c>
       <c r="D7">
-        <v>1.013151492012443</v>
+        <v>1.013151492012441</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9755740585661974</v>
+        <v>0.9755740585661953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041305976702077</v>
+        <v>1.041305976702076</v>
       </c>
       <c r="J7">
-        <v>1.014444555565677</v>
+        <v>1.014444555565675</v>
       </c>
       <c r="K7">
-        <v>1.023090790618905</v>
+        <v>1.023090790618903</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9859734014549744</v>
+        <v>0.9859734014549725</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.985405986123039</v>
+        <v>0.9854059861230398</v>
       </c>
       <c r="D8">
-        <v>1.006168416901329</v>
+        <v>1.00616841690133</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9623305596023843</v>
+        <v>0.9623305596023854</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038130688188014</v>
       </c>
       <c r="J8">
-        <v>1.007446169128583</v>
+        <v>1.007446169128585</v>
       </c>
       <c r="K8">
-        <v>1.017265476356608</v>
+        <v>1.017265476356609</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9740461775361228</v>
+        <v>0.9740461775361238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.967238199283015</v>
+        <v>0.9672381992830142</v>
       </c>
       <c r="D9">
-        <v>0.9928472071898233</v>
+        <v>0.9928472071898227</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9369038751587466</v>
+        <v>0.9369038751587467</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.031926836905064</v>
       </c>
       <c r="J9">
-        <v>0.9940033765811215</v>
+        <v>0.9940033765811207</v>
       </c>
       <c r="K9">
         <v>1.006057409365331</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
         <v>0.9511109177754425</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9539670145775256</v>
+        <v>0.953967014577525</v>
       </c>
       <c r="D10">
-        <v>0.9831393986478203</v>
+        <v>0.9831393986478197</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9181859238095657</v>
+        <v>0.9181859238095651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027304926417447</v>
+        <v>1.027304926417446</v>
       </c>
       <c r="J10">
-        <v>0.9841340392555137</v>
+        <v>0.9841340392555131</v>
       </c>
       <c r="K10">
-        <v>0.9978198988533207</v>
+        <v>0.99781989885332</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9342081243747093</v>
+        <v>0.934208124374709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478867436108314</v>
+        <v>0.9478867436108316</v>
       </c>
       <c r="D11">
-        <v>0.9786997877259203</v>
+        <v>0.9786997877259206</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9095591608770301</v>
+        <v>0.9095591608770305</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025166970874096</v>
       </c>
       <c r="J11">
-        <v>0.9796005341017453</v>
+        <v>0.9796005341017456</v>
       </c>
       <c r="K11">
-        <v>0.9940348932469374</v>
+        <v>0.9940348932469376</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9264150769520711</v>
+        <v>0.9264150769520717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455719974672423</v>
+        <v>0.9455719974672419</v>
       </c>
       <c r="D12">
-        <v>0.9770111039408724</v>
+        <v>0.9770111039408722</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9062655146760052</v>
+        <v>0.9062655146760045</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.024350086810949</v>
       </c>
       <c r="J12">
-        <v>0.9778728531246237</v>
+        <v>0.9778728531246235</v>
       </c>
       <c r="K12">
-        <v>0.9925923977748288</v>
+        <v>0.9925923977748284</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.923439485885736</v>
+        <v>0.9234394858857357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460711750198847</v>
+        <v>0.9460711750198852</v>
       </c>
       <c r="D13">
-        <v>0.9773751999427877</v>
+        <v>0.9773751999427885</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9069762522016676</v>
+        <v>0.9069762522016681</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.024526381006854</v>
       </c>
       <c r="J13">
-        <v>0.9782455102239918</v>
+        <v>0.9782455102239925</v>
       </c>
       <c r="K13">
-        <v>0.9929035419543943</v>
+        <v>0.9929035419543951</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9240815982790537</v>
+        <v>0.9240815982790542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476965931354887</v>
+        <v>0.9476965931354892</v>
       </c>
       <c r="D14">
-        <v>0.9785610354299811</v>
+        <v>0.9785610354299813</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9092887992369594</v>
+        <v>0.9092887992369598</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.025099925445671</v>
       </c>
       <c r="J14">
-        <v>0.9794586457617562</v>
+        <v>0.9794586457617567</v>
       </c>
       <c r="K14">
-        <v>0.9939164267943172</v>
+        <v>0.9939164267943174</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9261708270850957</v>
+        <v>0.9261708270850962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486904093626061</v>
+        <v>0.9486904093626055</v>
       </c>
       <c r="D15">
-        <v>0.9792862815240687</v>
+        <v>0.979286281524068</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9107014419687649</v>
+        <v>0.910701441968764</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.025450216752967</v>
       </c>
       <c r="J15">
-        <v>0.9802001487939371</v>
+        <v>0.9802001487939364</v>
       </c>
       <c r="K15">
-        <v>0.9945355260894975</v>
+        <v>0.9945355260894967</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9274470264189939</v>
+        <v>0.927447026418993</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9543630126383619</v>
+        <v>0.9543630126383615</v>
       </c>
       <c r="D16">
-        <v>0.9834287299471799</v>
+        <v>0.98342872994718</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9187465789127754</v>
+        <v>0.9187465789127758</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.027443755849235</v>
       </c>
       <c r="J16">
-        <v>0.9844290552123256</v>
+        <v>0.9844290552123255</v>
       </c>
       <c r="K16">
         <v>0.998066192363731</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9347145514010228</v>
+        <v>0.9347145514010231</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9859612724107901</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9236463440250146</v>
+        <v>0.9236463440250151</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.000220011830443</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9391400958895385</v>
+        <v>0.9391400958895388</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598172407986122</v>
+        <v>0.959817240798612</v>
       </c>
       <c r="D18">
-        <v>0.987416000499629</v>
+        <v>0.9874160004996285</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9264547888143265</v>
+        <v>0.9264547888143261</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029350414571432</v>
       </c>
       <c r="J18">
-        <v>0.9884892358891272</v>
+        <v>0.9884892358891268</v>
       </c>
       <c r="K18">
-        <v>1.001455544093965</v>
+        <v>1.001455544093964</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.941676448757686</v>
+        <v>0.9416764487576853</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604903253792232</v>
+        <v>0.9604903253792241</v>
       </c>
       <c r="D19">
-        <v>0.9879083296484654</v>
+        <v>0.9879083296484663</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9274042960086589</v>
+        <v>0.9274042960086599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029584971010621</v>
+        <v>1.029584971010622</v>
       </c>
       <c r="J19">
-        <v>0.9889898637175618</v>
+        <v>0.9889898637175627</v>
       </c>
       <c r="K19">
-        <v>1.001873413153435</v>
+        <v>1.001873413153436</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9425339125521152</v>
+        <v>0.9425339125521162</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574595118243575</v>
+        <v>0.9574595118243562</v>
       </c>
       <c r="D20">
-        <v>0.9856919054578005</v>
+        <v>0.9856919054577996</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.923125838113806</v>
+        <v>0.9231258381138047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02852749436055</v>
+        <v>1.028527494360549</v>
       </c>
       <c r="J20">
-        <v>0.9867348584653362</v>
+        <v>0.9867348584653349</v>
       </c>
       <c r="K20">
-        <v>0.9999910994266672</v>
+        <v>0.9999910994266662</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9386699946719692</v>
+        <v>0.938669994671968</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9472195559493303</v>
+        <v>0.9472195559493292</v>
       </c>
       <c r="D21">
-        <v>0.9782129671248164</v>
+        <v>0.9782129671248156</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9086103749135014</v>
+        <v>0.9086103749135007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024931678893298</v>
+        <v>1.024931678893297</v>
       </c>
       <c r="J21">
-        <v>0.9791026567718637</v>
+        <v>0.9791026567718626</v>
       </c>
       <c r="K21">
-        <v>0.9936192012428268</v>
+        <v>0.9936192012428257</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9255579222171763</v>
+        <v>0.9255579222171754</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9404518518146662</v>
+        <v>0.9404518518146651</v>
       </c>
       <c r="D22">
-        <v>0.9732788112875994</v>
+        <v>0.9732788112875985</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8989602345480292</v>
+        <v>0.8989602345480283</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022537785990247</v>
       </c>
       <c r="J22">
-        <v>0.9740479511063052</v>
+        <v>0.9740479511063042</v>
       </c>
       <c r="K22">
-        <v>0.9893988790176252</v>
+        <v>0.9893988790176244</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9168394140161413</v>
+        <v>0.9168394140161402</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9440731221429475</v>
+        <v>0.9440731221429466</v>
       </c>
       <c r="D23">
-        <v>0.9759180729016208</v>
+        <v>0.97591807290162</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9041298439155185</v>
+        <v>0.9041298439155175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023820302551643</v>
+        <v>1.023820302551642</v>
       </c>
       <c r="J23">
-        <v>0.9767536161787236</v>
+        <v>0.9767536161787226</v>
       </c>
       <c r="K23">
-        <v>0.9916579081702572</v>
+        <v>0.9916579081702563</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9215100032422143</v>
+        <v>0.9215100032422132</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576260874599242</v>
+        <v>0.9576260874599256</v>
       </c>
       <c r="D24">
-        <v>0.9858136898974108</v>
+        <v>0.9858136898974119</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9233611845254203</v>
+        <v>0.9233611845254217</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028585699672519</v>
       </c>
       <c r="J24">
-        <v>0.9868588442363131</v>
+        <v>0.9868588442363144</v>
       </c>
       <c r="K24">
-        <v>1.000094598946934</v>
+        <v>1.000094598946935</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9388825515126289</v>
+        <v>0.9388825515126303</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.972121940962412</v>
+        <v>0.9721219409624117</v>
       </c>
       <c r="D25">
-        <v>0.9964249954600641</v>
+        <v>0.9964249954600638</v>
       </c>
       <c r="E25">
         <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9437586342731664</v>
+        <v>0.9437586342731654</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.033610017976914</v>
       </c>
       <c r="J25">
-        <v>0.9976253676141208</v>
+        <v>0.9976253676141204</v>
       </c>
       <c r="K25">
         <v>1.009079063438915</v>
@@ -1322,7 +1322,7 @@
         <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9572976383085448</v>
+        <v>0.9572976383085439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9828687758862975</v>
+        <v>0.9828818194100901</v>
       </c>
       <c r="D2">
-        <v>1.004306321837439</v>
+        <v>1.004316779997905</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9587907003788144</v>
+        <v>0.9588044723628948</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0372743876804</v>
+        <v>1.03728027075172</v>
       </c>
       <c r="J2">
-        <v>1.005574237519298</v>
+        <v>1.005586871879529</v>
       </c>
       <c r="K2">
-        <v>1.015705987011191</v>
+        <v>1.015716301045416</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9708556513883666</v>
+        <v>0.9708692098716819</v>
+      </c>
+      <c r="N2">
+        <v>1.005789471457113</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990269129451063</v>
+        <v>0.9902775387876184</v>
       </c>
       <c r="D3">
-        <v>1.009738736477457</v>
+        <v>1.009745592158465</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9691073520821762</v>
+        <v>0.9691161794119498</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039761507843707</v>
+        <v>1.039765363089946</v>
       </c>
       <c r="J3">
-        <v>1.011028629330586</v>
+        <v>1.01103680322657</v>
       </c>
       <c r="K3">
-        <v>1.020248506567278</v>
+        <v>1.020255276625859</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9801513895823167</v>
+        <v>0.9801600947074444</v>
+      </c>
+      <c r="N3">
+        <v>1.009527140433715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9948904372982803</v>
+        <v>0.994896016572675</v>
       </c>
       <c r="D4">
-        <v>1.013132686407016</v>
+        <v>1.013137336330563</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9755384501532297</v>
+        <v>0.9755442864861891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297506485374</v>
+        <v>1.041300117543432</v>
       </c>
       <c r="J4">
-        <v>1.014425755494503</v>
+        <v>1.014431190059031</v>
       </c>
       <c r="K4">
-        <v>1.023075153809472</v>
+        <v>1.023079749398596</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9859413541714325</v>
+        <v>0.9859471155819267</v>
+      </c>
+      <c r="N4">
+        <v>1.011853952248953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9967957245124861</v>
+        <v>0.9968001504241797</v>
       </c>
       <c r="D5">
-        <v>1.014532210521347</v>
+        <v>1.014535960302001</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9781877550490108</v>
+        <v>0.978192378444525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04192659942237</v>
+        <v>1.041928702150543</v>
       </c>
       <c r="J5">
-        <v>1.015824161589964</v>
+        <v>1.015828476421556</v>
       </c>
       <c r="K5">
-        <v>1.024238068670375</v>
+        <v>1.024241775876006</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9883253499653696</v>
+        <v>0.9883299158991334</v>
+      </c>
+      <c r="N5">
+        <v>1.012811493443544</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9971134995264581</v>
+        <v>0.9971177338126932</v>
       </c>
       <c r="D6">
-        <v>1.014765643119663</v>
+        <v>1.014769243279491</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9786295126023499</v>
+        <v>0.9786339348055397</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042031275947088</v>
+        <v>1.042033294147059</v>
       </c>
       <c r="J6">
-        <v>1.016057267729242</v>
+        <v>1.016061396335055</v>
       </c>
       <c r="K6">
-        <v>1.024431879814643</v>
+        <v>1.024435439296883</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9887227968668986</v>
+        <v>0.988727164408812</v>
+      </c>
+      <c r="N6">
+        <v>1.012971093336605</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949160400880136</v>
+        <v>0.9949216038129377</v>
       </c>
       <c r="D7">
-        <v>1.013151492012441</v>
+        <v>1.01315612980499</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9755740585661953</v>
+        <v>0.9755798785236381</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041305976702076</v>
+        <v>1.041308580911821</v>
       </c>
       <c r="J7">
-        <v>1.014444555565675</v>
+        <v>1.014449975047013</v>
       </c>
       <c r="K7">
-        <v>1.023090790618903</v>
+        <v>1.023095374239418</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9859734014549725</v>
+        <v>0.9859791467322746</v>
+      </c>
+      <c r="N7">
+        <v>1.011866826477361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854059861230398</v>
+        <v>0.9854174260312689</v>
       </c>
       <c r="D8">
-        <v>1.00616841690133</v>
+        <v>1.006177629809383</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9623305596023854</v>
+        <v>0.9623426137840337</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038130688188014</v>
+        <v>1.038135870879835</v>
       </c>
       <c r="J8">
-        <v>1.007446169128585</v>
+        <v>1.007457263514925</v>
       </c>
       <c r="K8">
-        <v>1.017265476356609</v>
+        <v>1.017274566385527</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9740461775361238</v>
+        <v>0.9740580517823747</v>
+      </c>
+      <c r="N8">
+        <v>1.007072453356541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9672381992830142</v>
+        <v>0.9672614986062814</v>
       </c>
       <c r="D9">
-        <v>0.9928472071898227</v>
+        <v>0.9928655940650691</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9369038751587467</v>
+        <v>0.9369288120331059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031926836905064</v>
+        <v>1.031937166403474</v>
       </c>
       <c r="J9">
-        <v>0.9940033765811207</v>
+        <v>0.994025772377529</v>
       </c>
       <c r="K9">
-        <v>1.006057409365331</v>
+        <v>1.006075492376509</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9511109177754425</v>
+        <v>0.9511353755791455</v>
+      </c>
+      <c r="N9">
+        <v>0.9978548412466485</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953967014577525</v>
+        <v>0.9539996057074487</v>
       </c>
       <c r="D10">
-        <v>0.9831393986478197</v>
+        <v>0.9831649143380671</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9181859238095651</v>
+        <v>0.918221263392868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027304926417446</v>
+        <v>1.027319236557514</v>
       </c>
       <c r="J10">
-        <v>0.9841340392555131</v>
+        <v>0.9841651515079924</v>
       </c>
       <c r="K10">
-        <v>0.99781989885332</v>
+        <v>0.9978449329860392</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.934208124374709</v>
+        <v>0.9342426650960018</v>
+      </c>
+      <c r="N10">
+        <v>0.991082881167325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9478867436108316</v>
+        <v>0.9479238003577121</v>
       </c>
       <c r="D11">
-        <v>0.9786997877259206</v>
+        <v>0.978728710542538</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9095591608770305</v>
+        <v>0.9095996046735861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025166970874096</v>
+        <v>1.025183178404466</v>
       </c>
       <c r="J11">
-        <v>0.9796005341017456</v>
+        <v>0.9796357938441821</v>
       </c>
       <c r="K11">
-        <v>0.9940348932469376</v>
+        <v>0.9940632389718755</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9264150769520717</v>
+        <v>0.9264545402252758</v>
+      </c>
+      <c r="N11">
+        <v>0.9879713595709086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9455719974672419</v>
+        <v>0.9456107921560098</v>
       </c>
       <c r="D12">
-        <v>0.9770111039408722</v>
+        <v>0.9770413494022533</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9062655146760045</v>
+        <v>0.9063079641467667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024350086810949</v>
+        <v>1.024367030080519</v>
       </c>
       <c r="J12">
-        <v>0.9778728531246235</v>
+        <v>0.9779097198978245</v>
       </c>
       <c r="K12">
-        <v>0.9925923977748284</v>
+        <v>0.9926220272991975</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9234394858857357</v>
+        <v>0.9234808790940501</v>
+      </c>
+      <c r="N12">
+        <v>0.9867854940081857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460711750198852</v>
+        <v>0.9461095930884901</v>
       </c>
       <c r="D13">
-        <v>0.9773751999427885</v>
+        <v>0.9774051589402935</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9069762522016681</v>
+        <v>0.9070182661057777</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024526381006854</v>
+        <v>1.024543164965164</v>
       </c>
       <c r="J13">
-        <v>0.9782455102239925</v>
+        <v>0.978282029079912</v>
       </c>
       <c r="K13">
-        <v>0.9929035419543951</v>
+        <v>0.9929328935100319</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9240815982790542</v>
+        <v>0.9241225725756921</v>
+      </c>
+      <c r="N13">
+        <v>0.987041286229249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9476965931354892</v>
+        <v>0.947733791839638</v>
       </c>
       <c r="D14">
-        <v>0.9785610354299813</v>
+        <v>0.9785900663523366</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9092887992369598</v>
+        <v>0.9093294064509093</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025099925445671</v>
+        <v>1.025116193128317</v>
       </c>
       <c r="J14">
-        <v>0.9794586457617567</v>
+        <v>0.9794940369163596</v>
       </c>
       <c r="K14">
-        <v>0.9939164267943174</v>
+        <v>0.993944877486347</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9261708270850962</v>
+        <v>0.9262104476959386</v>
+      </c>
+      <c r="N14">
+        <v>0.9878739702617257</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486904093626055</v>
+        <v>0.9487268677101991</v>
       </c>
       <c r="D15">
-        <v>0.979286281524068</v>
+        <v>0.9793147484996232</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.910701441968764</v>
+        <v>0.910741197698087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025450216752967</v>
+        <v>1.025466170610299</v>
       </c>
       <c r="J15">
-        <v>0.9802001487939364</v>
+        <v>0.9802348542978213</v>
       </c>
       <c r="K15">
-        <v>0.9945355260894967</v>
+        <v>0.9945634291361162</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.927447026418993</v>
+        <v>0.9274858270453828</v>
+      </c>
+      <c r="N15">
+        <v>0.9883829195805491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9543630126383615</v>
+        <v>0.954395317736206</v>
       </c>
       <c r="D16">
-        <v>0.98342872994718</v>
+        <v>0.9834540269821611</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9187465789127758</v>
+        <v>0.918781593937958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027443755849235</v>
+        <v>1.02745794411467</v>
       </c>
       <c r="J16">
-        <v>0.9844290552123255</v>
+        <v>0.98445990090304</v>
       </c>
       <c r="K16">
-        <v>0.998066192363731</v>
+        <v>0.9980910137444924</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9347145514010231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9347487785715278</v>
+      </c>
+      <c r="N16">
+        <v>0.9912853480084519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9578279425958608</v>
+        <v>0.9578577689313453</v>
       </c>
       <c r="D17">
-        <v>0.9859612724107901</v>
+        <v>0.9859846724530631</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9236463440250151</v>
+        <v>0.9236785581621052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028656219295159</v>
+        <v>1.028669349644511</v>
       </c>
       <c r="J17">
-        <v>0.9870090817178696</v>
+        <v>0.9870376127462355</v>
       </c>
       <c r="K17">
-        <v>1.000220011830443</v>
+        <v>1.000242986254611</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9391400958895388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9391716144317874</v>
+      </c>
+      <c r="N17">
+        <v>0.9930559104278636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.959817240798612</v>
+        <v>0.9598456629706592</v>
       </c>
       <c r="D18">
-        <v>0.9874160004996285</v>
+        <v>0.9874383242559197</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9264547888143261</v>
+        <v>0.9264854255389227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029350414571432</v>
+        <v>1.029362944237055</v>
       </c>
       <c r="J18">
-        <v>0.9884892358891268</v>
+        <v>0.988516452003091</v>
       </c>
       <c r="K18">
-        <v>1.001455544093964</v>
+        <v>1.001477469668187</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9416764487576853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9417064396783879</v>
+      </c>
+      <c r="N18">
+        <v>0.9940716002068634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9604903253792241</v>
+        <v>0.9605182754951849</v>
       </c>
       <c r="D19">
-        <v>0.9879083296484663</v>
+        <v>0.9879302913031861</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9274042960086599</v>
+        <v>0.9274344039133489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029584971010622</v>
+        <v>1.02959729850807</v>
       </c>
       <c r="J19">
-        <v>0.9889898637175627</v>
+        <v>0.9890166371724889</v>
       </c>
       <c r="K19">
-        <v>1.001873413153436</v>
+        <v>1.001894985699424</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9425339125521162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9425633909932689</v>
+      </c>
+      <c r="N19">
+        <v>0.9944151198426033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574595118243562</v>
+        <v>0.9574895997165078</v>
       </c>
       <c r="D20">
-        <v>0.9856919054577996</v>
+        <v>0.9857155058480671</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9231258381138047</v>
+        <v>0.9231583468115901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028527494360549</v>
+        <v>1.028540736488557</v>
       </c>
       <c r="J20">
-        <v>0.9867348584653349</v>
+        <v>0.9867636341281981</v>
       </c>
       <c r="K20">
-        <v>0.9999910994266662</v>
+        <v>1.000014269015013</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.938669994671968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9387017983034599</v>
+      </c>
+      <c r="N20">
+        <v>0.9928677305006024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9472195559493292</v>
+        <v>0.947257111420194</v>
       </c>
       <c r="D21">
-        <v>0.9782129671248156</v>
+        <v>0.9782422696829599</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9086103749135007</v>
+        <v>0.9086513931475185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024931678893297</v>
+        <v>1.024948097706315</v>
       </c>
       <c r="J21">
-        <v>0.9791026567718626</v>
+        <v>0.9791383780748251</v>
       </c>
       <c r="K21">
-        <v>0.9936192012428257</v>
+        <v>0.9936479156555292</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9255579222171754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9255979384848239</v>
+      </c>
+      <c r="N21">
+        <v>0.9876296252191999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9404518518146651</v>
+        <v>0.9404945697127111</v>
       </c>
       <c r="D22">
-        <v>0.9732788112875985</v>
+        <v>0.9733120355662773</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8989602345480283</v>
+        <v>0.8990072522465675</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022537785990247</v>
+        <v>1.022556384651282</v>
       </c>
       <c r="J22">
-        <v>0.9740479511063042</v>
+        <v>0.9740884312394931</v>
       </c>
       <c r="K22">
-        <v>0.9893988790176244</v>
+        <v>0.9894313963902762</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9168394140161402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9168851939255475</v>
+      </c>
+      <c r="N22">
+        <v>0.9841599841057068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9440731221429466</v>
+        <v>0.9441130538623447</v>
       </c>
       <c r="D23">
-        <v>0.97591807290162</v>
+        <v>0.9759491826731366</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9041298439155175</v>
+        <v>0.9041736115163721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023820302551642</v>
+        <v>1.023837726364055</v>
       </c>
       <c r="J23">
-        <v>0.9767536161787226</v>
+        <v>0.9767915322134729</v>
       </c>
       <c r="K23">
-        <v>0.9916579081702563</v>
+        <v>0.9916883761018114</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9215100032422132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9215526634826183</v>
+      </c>
+      <c r="N23">
+        <v>0.986017237923781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9576260874599256</v>
+        <v>0.9576560570380616</v>
       </c>
       <c r="D24">
-        <v>0.9858136898974119</v>
+        <v>0.9858371996663678</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9233611845254217</v>
+        <v>0.9233935599513063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028585699672519</v>
+        <v>1.028598891242291</v>
       </c>
       <c r="J24">
-        <v>0.9868588442363144</v>
+        <v>0.9868875092513791</v>
       </c>
       <c r="K24">
-        <v>1.000094598946935</v>
+        <v>1.000117680261678</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9388825515126303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9389142261642733</v>
+      </c>
+      <c r="N24">
+        <v>0.9929528133646008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9721219409624117</v>
+        <v>0.9721419621713114</v>
       </c>
       <c r="D25">
-        <v>0.9964249954600638</v>
+        <v>0.996440854787309</v>
       </c>
       <c r="E25">
         <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9437586342731654</v>
+        <v>0.9437799677781439</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033610017976914</v>
+        <v>1.033618932353831</v>
       </c>
       <c r="J25">
-        <v>0.9976253676141204</v>
+        <v>0.9976446596120745</v>
       </c>
       <c r="K25">
-        <v>1.009079063438915</v>
+        <v>1.009094674310869</v>
       </c>
       <c r="L25">
         <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9572976383085439</v>
+        <v>0.9573185873651155</v>
+      </c>
+      <c r="N25">
+        <v>1.000339275216938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9828818194100901</v>
+        <v>1.011913068219745</v>
       </c>
       <c r="D2">
-        <v>1.004316779997905</v>
+        <v>1.028572829606177</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.013158931592864</v>
       </c>
       <c r="F2">
-        <v>0.9588044723628948</v>
+        <v>1.023734133580237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03728027075172</v>
+        <v>1.051554867055838</v>
       </c>
       <c r="J2">
-        <v>1.005586871879529</v>
+        <v>1.033743207603674</v>
       </c>
       <c r="K2">
-        <v>1.015716301045416</v>
+        <v>1.039647949619708</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.024437935788523</v>
       </c>
       <c r="M2">
-        <v>0.9708692098716819</v>
+        <v>1.034872427671688</v>
       </c>
       <c r="N2">
-        <v>1.005789471457113</v>
+        <v>1.035211241530475</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9902775387876184</v>
+        <v>1.020601652002157</v>
       </c>
       <c r="D3">
-        <v>1.009745592158465</v>
+        <v>1.035417242471157</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.021108055200713</v>
       </c>
       <c r="F3">
-        <v>0.9691161794119498</v>
+        <v>1.032030672522332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039765363089946</v>
+        <v>1.055019604232736</v>
       </c>
       <c r="J3">
-        <v>1.01103680322657</v>
+        <v>1.040546027264158</v>
       </c>
       <c r="K3">
-        <v>1.020255276625859</v>
+        <v>1.045616153728769</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.031477794445746</v>
       </c>
       <c r="M3">
-        <v>0.9801600947074444</v>
+        <v>1.042269483728448</v>
       </c>
       <c r="N3">
-        <v>1.009527140433715</v>
+        <v>1.04202372197517</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994896016572675</v>
+        <v>1.026022586264962</v>
       </c>
       <c r="D4">
-        <v>1.013137336330563</v>
+        <v>1.039689184686763</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.0260607093511</v>
       </c>
       <c r="F4">
-        <v>0.9755442864861891</v>
+        <v>1.037205177389646</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041300117543432</v>
+        <v>1.057165534908453</v>
       </c>
       <c r="J4">
-        <v>1.014431190059031</v>
+        <v>1.044783268938658</v>
       </c>
       <c r="K4">
-        <v>1.023079749398596</v>
+        <v>1.049331079449572</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.035854458768289</v>
       </c>
       <c r="M4">
-        <v>0.9859471155819267</v>
+        <v>1.046874384557134</v>
       </c>
       <c r="N4">
-        <v>1.011853952248953</v>
+        <v>1.046266981018867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9968001504241797</v>
+        <v>1.028256611098012</v>
       </c>
       <c r="D5">
-        <v>1.014535960302001</v>
+        <v>1.041449966006588</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.028100096235085</v>
       </c>
       <c r="F5">
-        <v>0.978192378444525</v>
+        <v>1.039337201682951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041928702150543</v>
+        <v>1.058046059135256</v>
       </c>
       <c r="J5">
-        <v>1.015828476421556</v>
+        <v>1.046527718800734</v>
       </c>
       <c r="K5">
-        <v>1.024241775876006</v>
+        <v>1.050859876295164</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.037654402371931</v>
       </c>
       <c r="M5">
-        <v>0.9883299158991334</v>
+        <v>1.048769661541483</v>
       </c>
       <c r="N5">
-        <v>1.012811493443544</v>
+        <v>1.048013908199839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9971177338126932</v>
+        <v>1.028629166100065</v>
       </c>
       <c r="D6">
-        <v>1.014769243279491</v>
+        <v>1.041743613526008</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.028440095447865</v>
       </c>
       <c r="F6">
-        <v>0.9786339348055397</v>
+        <v>1.039692720367154</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042033294147059</v>
+        <v>1.058192671701496</v>
       </c>
       <c r="J6">
-        <v>1.016061396335055</v>
+        <v>1.046818525210859</v>
       </c>
       <c r="K6">
-        <v>1.024435439296883</v>
+        <v>1.051114695380142</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.037954349506935</v>
       </c>
       <c r="M6">
-        <v>0.988727164408812</v>
+        <v>1.049085581426515</v>
       </c>
       <c r="N6">
-        <v>1.012971093336605</v>
+        <v>1.048305127588421</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949216038129377</v>
+        <v>1.02605260997189</v>
       </c>
       <c r="D7">
-        <v>1.01315612980499</v>
+        <v>1.039712847423428</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.026088123812182</v>
       </c>
       <c r="F7">
-        <v>0.9755798785236381</v>
+        <v>1.037233832049894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041308580911821</v>
+        <v>1.057177383801573</v>
       </c>
       <c r="J7">
-        <v>1.014449975047013</v>
+        <v>1.044806720154877</v>
       </c>
       <c r="K7">
-        <v>1.023095374239418</v>
+        <v>1.049351634057535</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.035878663476684</v>
       </c>
       <c r="M7">
-        <v>0.9859791467322746</v>
+        <v>1.046899865446157</v>
       </c>
       <c r="N7">
-        <v>1.011866826477361</v>
+        <v>1.046290465538502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854174260312689</v>
+        <v>1.014893118720419</v>
       </c>
       <c r="D8">
-        <v>1.006177629809383</v>
+        <v>1.030919939218952</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.015886828900635</v>
       </c>
       <c r="F8">
-        <v>0.9623426137840337</v>
+        <v>1.026580101874444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038135870879835</v>
+        <v>1.052746527488666</v>
       </c>
       <c r="J8">
-        <v>1.007457263514925</v>
+        <v>1.036077950530872</v>
       </c>
       <c r="K8">
-        <v>1.017274566385527</v>
+        <v>1.041696755712953</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.026855818591113</v>
       </c>
       <c r="M8">
-        <v>0.9740580517823747</v>
+        <v>1.03741167439987</v>
       </c>
       <c r="N8">
-        <v>1.007072453356541</v>
+        <v>1.037549300060428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9672614986062814</v>
+        <v>0.9935223728879776</v>
       </c>
       <c r="D9">
-        <v>0.9928655940650691</v>
+        <v>1.014100920271552</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9962937931882</v>
       </c>
       <c r="F9">
-        <v>0.9369288120331059</v>
+        <v>1.006163219031869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031937166403474</v>
+        <v>1.04413411997515</v>
       </c>
       <c r="J9">
-        <v>0.994025772377529</v>
+        <v>1.019305964933553</v>
       </c>
       <c r="K9">
-        <v>1.006075492376509</v>
+        <v>1.026969288791748</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.009447288578716</v>
       </c>
       <c r="M9">
-        <v>0.9511353755791455</v>
+        <v>1.019157087510734</v>
       </c>
       <c r="N9">
-        <v>0.9978548412466485</v>
+        <v>1.020753496319787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9539996057074487</v>
+        <v>0.9778558829449583</v>
       </c>
       <c r="D10">
-        <v>0.9831649143380671</v>
+        <v>1.001795141512499</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.981890883515012</v>
       </c>
       <c r="F10">
-        <v>0.918221263392868</v>
+        <v>0.9911865898101819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027319236557514</v>
+        <v>1.037737466761349</v>
       </c>
       <c r="J10">
-        <v>0.9841651515079924</v>
+        <v>1.006976487129598</v>
       </c>
       <c r="K10">
-        <v>0.9978449329860392</v>
+        <v>1.016132059592207</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9965949869081263</v>
       </c>
       <c r="M10">
-        <v>0.9342426650960018</v>
+        <v>1.005716817532533</v>
       </c>
       <c r="N10">
-        <v>0.991082881167325</v>
+        <v>1.008406509243139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9479238003577121</v>
+        <v>0.9706595520093885</v>
       </c>
       <c r="D11">
-        <v>0.978728710542538</v>
+        <v>0.9961510525452852</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9752655075160618</v>
       </c>
       <c r="F11">
-        <v>0.9095996046735861</v>
+        <v>0.9843051228654162</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025183178404466</v>
+        <v>1.034780540173957</v>
       </c>
       <c r="J11">
-        <v>0.9796357938441821</v>
+        <v>1.00130600156079</v>
       </c>
       <c r="K11">
-        <v>0.9940632389718755</v>
+        <v>1.011145921245887</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9906694569370398</v>
       </c>
       <c r="M11">
-        <v>0.9264545402252758</v>
+        <v>0.9995292179185516</v>
       </c>
       <c r="N11">
-        <v>0.9879713595709086</v>
+        <v>1.00272797093441</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9456107921560098</v>
+        <v>0.9679165847431828</v>
       </c>
       <c r="D12">
-        <v>0.9770413494022533</v>
+        <v>0.9940013041475861</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9727387461337785</v>
       </c>
       <c r="F12">
-        <v>0.9063079641467667</v>
+        <v>0.9816818908253278</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024367030080519</v>
+        <v>1.033650781682152</v>
       </c>
       <c r="J12">
-        <v>0.9779097198978245</v>
+        <v>0.9991436946961678</v>
       </c>
       <c r="K12">
-        <v>0.9926220272991975</v>
+        <v>1.009244339206983</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9884075528134015</v>
       </c>
       <c r="M12">
-        <v>0.9234808790940501</v>
+        <v>0.9971686576926012</v>
       </c>
       <c r="N12">
-        <v>0.9867854940081857</v>
+        <v>1.00056259334602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9461095930884901</v>
+        <v>0.9685082686608525</v>
       </c>
       <c r="D13">
-        <v>0.9774051589402935</v>
+        <v>0.9944649496645779</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9732838563556809</v>
       </c>
       <c r="F13">
-        <v>0.9070182661057777</v>
+        <v>0.982247758838233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024543164965164</v>
+        <v>1.03389460056943</v>
       </c>
       <c r="J13">
-        <v>0.978282029079912</v>
+        <v>0.9996101646956181</v>
       </c>
       <c r="K13">
-        <v>0.9929328935100319</v>
+        <v>1.009654573131721</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9888956169040107</v>
       </c>
       <c r="M13">
-        <v>0.9241225725756921</v>
+        <v>0.9976779466376184</v>
       </c>
       <c r="N13">
-        <v>0.987041286229249</v>
+        <v>1.001029725786374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.947733791839638</v>
+        <v>0.9704342952045769</v>
       </c>
       <c r="D14">
-        <v>0.9785900663523366</v>
+        <v>0.9959744784022589</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9750580345873362</v>
       </c>
       <c r="F14">
-        <v>0.9093294064509093</v>
+        <v>0.9840897043860688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025116193128317</v>
+        <v>1.034687816351668</v>
       </c>
       <c r="J14">
-        <v>0.9794940369163596</v>
+        <v>1.001128447654114</v>
       </c>
       <c r="K14">
-        <v>0.993944877486347</v>
+        <v>1.010989780669229</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9904837730815397</v>
       </c>
       <c r="M14">
-        <v>0.9262104476959386</v>
+        <v>0.9993354070985442</v>
       </c>
       <c r="N14">
-        <v>0.9878739702617257</v>
+        <v>1.002550164880821</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9487268677101991</v>
+        <v>0.9716114549184307</v>
       </c>
       <c r="D15">
-        <v>0.9793147484996232</v>
+        <v>0.9968972946600895</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9761422007849968</v>
       </c>
       <c r="F15">
-        <v>0.910741197698087</v>
+        <v>0.985215439283013</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025466170610299</v>
+        <v>1.035172269407481</v>
       </c>
       <c r="J15">
-        <v>0.9802348542978213</v>
+        <v>1.002056281780721</v>
       </c>
       <c r="K15">
-        <v>0.9945634291361162</v>
+        <v>1.011805707133933</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9914539956310661</v>
       </c>
       <c r="M15">
-        <v>0.9274858270453828</v>
+        <v>1.000348150227713</v>
       </c>
       <c r="N15">
-        <v>0.9883829195805491</v>
+        <v>1.003479316638312</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.954395317736206</v>
+        <v>0.9783241410871574</v>
       </c>
       <c r="D16">
-        <v>0.9834540269821611</v>
+        <v>1.002162594642295</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9823217955983548</v>
       </c>
       <c r="F16">
-        <v>0.918781593937958</v>
+        <v>0.9916343204399395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02745794411467</v>
+        <v>1.03792949645451</v>
       </c>
       <c r="J16">
-        <v>0.98445990090304</v>
+        <v>1.007345325546315</v>
       </c>
       <c r="K16">
-        <v>0.9980910137444924</v>
+        <v>1.016456348958258</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9969801027865909</v>
       </c>
       <c r="M16">
-        <v>0.9347487785715278</v>
+        <v>1.006119153297627</v>
       </c>
       <c r="N16">
-        <v>0.9912853480084519</v>
+        <v>1.008775871452715</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9578577689313453</v>
+        <v>0.9824191918532793</v>
       </c>
       <c r="D17">
-        <v>0.9859846724530631</v>
+        <v>1.005377059090157</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9860891848808457</v>
       </c>
       <c r="F17">
-        <v>0.9236785581621052</v>
+        <v>0.9955496284216381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028669349644511</v>
+        <v>1.039606774923535</v>
       </c>
       <c r="J17">
-        <v>0.9870376127462355</v>
+        <v>1.010570151610875</v>
       </c>
       <c r="K17">
-        <v>1.000242986254611</v>
+        <v>1.019291461291006</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.000345598050195</v>
       </c>
       <c r="M17">
-        <v>0.9391716144317874</v>
+        <v>1.009636141339712</v>
       </c>
       <c r="N17">
-        <v>0.9930559104278636</v>
+        <v>1.012005277140179</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598456629706592</v>
+        <v>0.9847685577198648</v>
       </c>
       <c r="D18">
-        <v>0.9874383242559197</v>
+        <v>1.007221997494724</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9882496871204168</v>
       </c>
       <c r="F18">
-        <v>0.9264854255389227</v>
+        <v>0.9977956843719548</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029362944237055</v>
+        <v>1.040567299667095</v>
       </c>
       <c r="J18">
-        <v>0.988516452003091</v>
+        <v>1.01241960245</v>
       </c>
       <c r="K18">
-        <v>1.001477469668187</v>
+        <v>1.020917223503098</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.002274376345421</v>
       </c>
       <c r="M18">
-        <v>0.9417064396783879</v>
+        <v>1.01165257596452</v>
       </c>
       <c r="N18">
-        <v>0.9940716002068634</v>
+        <v>1.01385735441163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9605182754951849</v>
+        <v>0.9855631985357529</v>
       </c>
       <c r="D19">
-        <v>0.9879302913031861</v>
+        <v>1.007846146023554</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9889802979056733</v>
       </c>
       <c r="F19">
-        <v>0.9274344039133489</v>
+        <v>0.998555349177457</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02959729850807</v>
+        <v>1.040891885091576</v>
       </c>
       <c r="J19">
-        <v>0.9890166371724889</v>
+        <v>1.013045038817284</v>
       </c>
       <c r="K19">
-        <v>1.001894985699424</v>
+        <v>1.021466980983729</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.002926414811812</v>
       </c>
       <c r="M19">
-        <v>0.9425633909932689</v>
+        <v>1.012334388253929</v>
       </c>
       <c r="N19">
-        <v>0.9944151198426033</v>
+        <v>1.014483678970295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9574895997165078</v>
+        <v>0.9819839398924267</v>
       </c>
       <c r="D20">
-        <v>0.9857155058480671</v>
+        <v>1.005035320017621</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.985688850931465</v>
       </c>
       <c r="F20">
-        <v>0.9231583468115901</v>
+        <v>0.9951335004560157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028540736488557</v>
+        <v>1.039428682337174</v>
       </c>
       <c r="J20">
-        <v>0.9867636341281981</v>
+        <v>1.010227461396702</v>
       </c>
       <c r="K20">
-        <v>1.000014269015013</v>
+        <v>1.01899020349748</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9999881006596695</v>
       </c>
       <c r="M20">
-        <v>0.9387017983034599</v>
+        <v>1.009262464572005</v>
       </c>
       <c r="N20">
-        <v>0.9928677305006024</v>
+        <v>1.011662100266595</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947257111420194</v>
+        <v>0.9698691299552982</v>
       </c>
       <c r="D21">
-        <v>0.9782422696829599</v>
+        <v>0.9955314832043601</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9745374659785613</v>
       </c>
       <c r="F21">
-        <v>0.9086513931475185</v>
+        <v>0.9835492189352338</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024948097706315</v>
+        <v>1.034455131183036</v>
       </c>
       <c r="J21">
-        <v>0.9791383780748251</v>
+        <v>1.000682953559348</v>
       </c>
       <c r="K21">
-        <v>0.9936479156555292</v>
+        <v>1.010598010432307</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9900178422970023</v>
       </c>
       <c r="M21">
-        <v>0.9255979384848239</v>
+        <v>0.9988491058374347</v>
       </c>
       <c r="N21">
-        <v>0.9876296252191999</v>
+        <v>1.002104038133341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9404945697127111</v>
+        <v>0.9618423829108838</v>
       </c>
       <c r="D22">
-        <v>0.9733120355662773</v>
+        <v>0.9892440140774319</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9671407017852662</v>
       </c>
       <c r="F22">
-        <v>0.8990072522465675</v>
+        <v>0.9758723552727622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022556384651282</v>
+        <v>1.031144132150772</v>
       </c>
       <c r="J22">
-        <v>0.9740884312394931</v>
+        <v>0.9943537642138102</v>
       </c>
       <c r="K22">
-        <v>0.9894313963902762</v>
+        <v>1.005031603528913</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9833924749219014</v>
       </c>
       <c r="M22">
-        <v>0.9168851939255475</v>
+        <v>0.9919374323300745</v>
       </c>
       <c r="N22">
-        <v>0.9841599841057068</v>
+        <v>0.9957658606129645</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9441130538623447</v>
+        <v>0.9661394061042222</v>
       </c>
       <c r="D23">
-        <v>0.9759491826731366</v>
+        <v>0.9926089545899299</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.971101248153554</v>
       </c>
       <c r="F23">
-        <v>0.9041736115163721</v>
+        <v>0.9799822140643529</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023837726364055</v>
+        <v>1.032918063671498</v>
       </c>
       <c r="J23">
-        <v>0.9767915322134729</v>
+        <v>0.9977424811499496</v>
       </c>
       <c r="K23">
-        <v>0.9916883761018114</v>
+        <v>1.008012021904904</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9869411174541969</v>
       </c>
       <c r="M23">
-        <v>0.9215526634826183</v>
+        <v>0.9956386550931281</v>
       </c>
       <c r="N23">
-        <v>0.986017237923781</v>
+        <v>0.9991593899158446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9576560570380616</v>
+        <v>0.9821807321015038</v>
       </c>
       <c r="D24">
-        <v>0.9858371996663678</v>
+        <v>1.005189829486994</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9858698582628478</v>
       </c>
       <c r="F24">
-        <v>0.9233935599513063</v>
+        <v>0.9953216466491606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028598891242291</v>
+        <v>1.039509209486212</v>
       </c>
       <c r="J24">
-        <v>0.9868875092513791</v>
+        <v>1.010382405354154</v>
       </c>
       <c r="K24">
-        <v>1.000117680261678</v>
+        <v>1.019126414783544</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.000149743714869</v>
       </c>
       <c r="M24">
-        <v>0.9389142261642733</v>
+        <v>1.009431420562085</v>
       </c>
       <c r="N24">
-        <v>0.9929528133646008</v>
+        <v>1.011817264262239</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9721419621713114</v>
+        <v>0.9992749356019416</v>
       </c>
       <c r="D25">
-        <v>0.996440854787309</v>
+        <v>1.018625031726531</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>1.001574479254638</v>
       </c>
       <c r="F25">
-        <v>0.9437799677781439</v>
+        <v>1.011660658894265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033618932353831</v>
+        <v>1.046466691670851</v>
       </c>
       <c r="J25">
-        <v>0.9976446596120745</v>
+        <v>1.023826725718901</v>
       </c>
       <c r="K25">
-        <v>1.009094674310869</v>
+        <v>1.030940937967902</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>1.014148402531651</v>
       </c>
       <c r="M25">
-        <v>0.9573185873651155</v>
+        <v>1.024080615347255</v>
       </c>
       <c r="N25">
-        <v>1.000339275216938</v>
+        <v>1.025280677103989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011913068219745</v>
+        <v>1.017793737279907</v>
       </c>
       <c r="D2">
-        <v>1.028572829606177</v>
+        <v>1.035575335397264</v>
       </c>
       <c r="E2">
-        <v>1.013158931592864</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.023734133580237</v>
+        <v>1.04044399804817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051554867055838</v>
+        <v>1.056050198892425</v>
       </c>
       <c r="J2">
-        <v>1.033743207603674</v>
+        <v>1.03945496061212</v>
       </c>
       <c r="K2">
-        <v>1.039647949619708</v>
+        <v>1.046560336953414</v>
       </c>
       <c r="L2">
-        <v>1.024437935788523</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.034872427671688</v>
+        <v>1.051367234706599</v>
       </c>
       <c r="N2">
-        <v>1.035211241530475</v>
+        <v>1.04093110588334</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020601652002157</v>
+        <v>1.026381191783225</v>
       </c>
       <c r="D3">
-        <v>1.035417242471157</v>
+        <v>1.042186519161063</v>
       </c>
       <c r="E3">
-        <v>1.021108055200713</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.032030672522332</v>
+        <v>1.047678597799441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055019604232736</v>
+        <v>1.059099474704239</v>
       </c>
       <c r="J3">
-        <v>1.040546027264158</v>
+        <v>1.046177631650607</v>
       </c>
       <c r="K3">
-        <v>1.045616153728769</v>
+        <v>1.052306636330417</v>
       </c>
       <c r="L3">
-        <v>1.031477794445746</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.042269483728448</v>
+        <v>1.057735710514431</v>
       </c>
       <c r="N3">
-        <v>1.04202372197517</v>
+        <v>1.047663323885803</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026022586264962</v>
+        <v>1.031748101286255</v>
       </c>
       <c r="D4">
-        <v>1.039689184686763</v>
+        <v>1.046319697160371</v>
       </c>
       <c r="E4">
-        <v>1.0260607093511</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.037205177389646</v>
+        <v>1.052205410852616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057165534908453</v>
+        <v>1.060989277402055</v>
       </c>
       <c r="J4">
-        <v>1.044783268938658</v>
+        <v>1.050373134483304</v>
       </c>
       <c r="K4">
-        <v>1.049331079449572</v>
+        <v>1.055889466251085</v>
       </c>
       <c r="L4">
-        <v>1.035854458768289</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.046874384557134</v>
+        <v>1.061712088623955</v>
       </c>
       <c r="N4">
-        <v>1.046266981018867</v>
+        <v>1.051864784813753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028256611098012</v>
+        <v>1.033961799374968</v>
       </c>
       <c r="D5">
-        <v>1.041449966006588</v>
+        <v>1.048024714440284</v>
       </c>
       <c r="E5">
-        <v>1.028100096235085</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.039337201682951</v>
+        <v>1.054073748905973</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058046059135256</v>
+        <v>1.061764875025442</v>
       </c>
       <c r="J5">
-        <v>1.046527718800734</v>
+        <v>1.052102156524566</v>
       </c>
       <c r="K5">
-        <v>1.050859876295164</v>
+        <v>1.057365163357824</v>
       </c>
       <c r="L5">
-        <v>1.037654402371931</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.048769661541483</v>
+        <v>1.063351224701475</v>
       </c>
       <c r="N5">
-        <v>1.048013908199839</v>
+        <v>1.053596262264634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028629166100065</v>
+        <v>1.034331072232624</v>
       </c>
       <c r="D6">
-        <v>1.041743613526008</v>
+        <v>1.048309140914618</v>
       </c>
       <c r="E6">
-        <v>1.028440095447865</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.039692720367154</v>
+        <v>1.054385475503421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058192671701496</v>
+        <v>1.061894023414302</v>
       </c>
       <c r="J6">
-        <v>1.046818525210859</v>
+        <v>1.052390488833837</v>
       </c>
       <c r="K6">
-        <v>1.051114695380142</v>
+        <v>1.05761120107844</v>
       </c>
       <c r="L6">
-        <v>1.037954349506935</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.049085581426515</v>
+        <v>1.063624591016976</v>
       </c>
       <c r="N6">
-        <v>1.048305127588421</v>
+        <v>1.053885004038858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02605260997189</v>
+        <v>1.031777844431045</v>
       </c>
       <c r="D7">
-        <v>1.039712847423428</v>
+        <v>1.04634260507489</v>
       </c>
       <c r="E7">
-        <v>1.026088123812182</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037233832049894</v>
+        <v>1.052230509352293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057177383801573</v>
+        <v>1.060999713813774</v>
       </c>
       <c r="J7">
-        <v>1.044806720154877</v>
+        <v>1.050396371591975</v>
       </c>
       <c r="K7">
-        <v>1.049351634057535</v>
+        <v>1.055909302161457</v>
       </c>
       <c r="L7">
-        <v>1.035878663476684</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.046899865446157</v>
+        <v>1.061734116111371</v>
       </c>
       <c r="N7">
-        <v>1.046290465538502</v>
+        <v>1.051888054921784</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014893118720419</v>
+        <v>1.020737020125947</v>
       </c>
       <c r="D8">
-        <v>1.030919939218952</v>
+        <v>1.037840889082545</v>
       </c>
       <c r="E8">
-        <v>1.015886828900635</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.026580101874444</v>
+        <v>1.042922367472707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052746527488666</v>
+        <v>1.057098633663695</v>
       </c>
       <c r="J8">
-        <v>1.036077950530872</v>
+        <v>1.041760321937342</v>
       </c>
       <c r="K8">
-        <v>1.041696755712953</v>
+        <v>1.048531562993582</v>
       </c>
       <c r="L8">
-        <v>1.026855818591113</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.03741167439987</v>
+        <v>1.053550698948846</v>
       </c>
       <c r="N8">
-        <v>1.037549300060428</v>
+        <v>1.043239741086073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9935223728879776</v>
+        <v>0.9996820666008532</v>
       </c>
       <c r="D9">
-        <v>1.014100920271552</v>
+        <v>1.02164643346278</v>
       </c>
       <c r="E9">
-        <v>0.9962937931882</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.006163219031869</v>
+        <v>1.025223419154546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04413411997515</v>
+        <v>1.049532609903745</v>
       </c>
       <c r="J9">
-        <v>1.019305964933553</v>
+        <v>1.025246056913443</v>
       </c>
       <c r="K9">
-        <v>1.026969288791748</v>
+        <v>1.03439781029624</v>
       </c>
       <c r="L9">
-        <v>1.009447288578716</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.019157087510734</v>
+        <v>1.037920102642525</v>
       </c>
       <c r="N9">
-        <v>1.020753496319787</v>
+        <v>1.026702023911627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9778558829449583</v>
+        <v>0.9843326153148488</v>
       </c>
       <c r="D10">
-        <v>1.001795141512499</v>
+        <v>1.009864493180722</v>
       </c>
       <c r="E10">
-        <v>0.981890883515012</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9911865898101819</v>
+        <v>1.012368251966488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037737466761349</v>
+        <v>1.043936192088998</v>
       </c>
       <c r="J10">
-        <v>1.006976487129598</v>
+        <v>1.013181936317641</v>
       </c>
       <c r="K10">
-        <v>1.016132059592207</v>
+        <v>1.024057896384102</v>
       </c>
       <c r="L10">
-        <v>0.9965949869081263</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.005716817532533</v>
+        <v>1.026517727783054</v>
       </c>
       <c r="N10">
-        <v>1.008406509243139</v>
+        <v>1.014620770880804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706595520093885</v>
+        <v>0.9773097792163431</v>
       </c>
       <c r="D11">
-        <v>0.9961510525452852</v>
+        <v>1.004482723422956</v>
       </c>
       <c r="E11">
-        <v>0.9752655075160618</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9843051228654162</v>
+        <v>1.006501262903951</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034780540173957</v>
+        <v>1.041358074587728</v>
       </c>
       <c r="J11">
-        <v>1.00130600156079</v>
+        <v>1.007657940994258</v>
       </c>
       <c r="K11">
-        <v>1.011145921245887</v>
+        <v>1.019320594406675</v>
       </c>
       <c r="L11">
-        <v>0.9906694569370398</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9995292179185516</v>
+        <v>1.02130160762158</v>
       </c>
       <c r="N11">
-        <v>1.00272797093441</v>
+        <v>1.009088930850451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9679165847431828</v>
+        <v>0.9746379600363452</v>
       </c>
       <c r="D12">
-        <v>0.9940013041475861</v>
+        <v>1.002436877444683</v>
       </c>
       <c r="E12">
-        <v>0.9727387461337785</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9816818908253278</v>
+        <v>1.004271711490306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033650781682152</v>
+        <v>1.040374752292165</v>
       </c>
       <c r="J12">
-        <v>0.9991436946961678</v>
+        <v>1.005555869954445</v>
       </c>
       <c r="K12">
-        <v>1.009244339206983</v>
+        <v>1.017517539174131</v>
       </c>
       <c r="L12">
-        <v>0.9884075528134015</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9971686576926012</v>
+        <v>1.019317527307503</v>
       </c>
       <c r="N12">
-        <v>1.00056259334602</v>
+        <v>1.006983874628651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9685082686608525</v>
+        <v>0.9752140549349063</v>
       </c>
       <c r="D13">
-        <v>0.9944649496645779</v>
+        <v>1.002877921544854</v>
       </c>
       <c r="E13">
-        <v>0.9732838563556809</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.982247758838233</v>
+        <v>1.004752325227638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03389460056943</v>
+        <v>1.040586884493696</v>
       </c>
       <c r="J13">
-        <v>0.9996101646956181</v>
+        <v>1.006009135183626</v>
       </c>
       <c r="K13">
-        <v>1.009654573131721</v>
+        <v>1.017906342681396</v>
       </c>
       <c r="L13">
-        <v>0.9888956169040107</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9976779466376184</v>
+        <v>1.019745311060829</v>
       </c>
       <c r="N13">
-        <v>1.001029725786374</v>
+        <v>1.007437783546448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704342952045769</v>
+        <v>0.9770902582087332</v>
       </c>
       <c r="D14">
-        <v>0.9959744784022589</v>
+        <v>1.004314598388889</v>
       </c>
       <c r="E14">
-        <v>0.9750580345873362</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9840897043860688</v>
+        <v>1.006318026080749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034687816351668</v>
+        <v>1.041277332534478</v>
       </c>
       <c r="J14">
-        <v>1.001128447654114</v>
+        <v>1.00748524014614</v>
       </c>
       <c r="K14">
-        <v>1.010989780669229</v>
+        <v>1.019172466540783</v>
       </c>
       <c r="L14">
-        <v>0.9904837730815397</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9993354070985442</v>
+        <v>1.021138583083863</v>
       </c>
       <c r="N14">
-        <v>1.002550164880821</v>
+        <v>1.00891598474732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9716114549184307</v>
+        <v>0.9782376522629773</v>
       </c>
       <c r="D15">
-        <v>0.9968972946600895</v>
+        <v>1.005193423785683</v>
       </c>
       <c r="E15">
-        <v>0.9761422007849968</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.985215439283013</v>
+        <v>1.007275874320315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035172269407481</v>
+        <v>1.041699255948801</v>
       </c>
       <c r="J15">
-        <v>1.002056281780721</v>
+        <v>1.008387895733511</v>
       </c>
       <c r="K15">
-        <v>1.011805707133933</v>
+        <v>1.019946672846756</v>
       </c>
       <c r="L15">
-        <v>0.9914539956310661</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.000348150227713</v>
+        <v>1.021990697939942</v>
       </c>
       <c r="N15">
-        <v>1.003479316638312</v>
+        <v>1.009819922209161</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9783241410871574</v>
+        <v>0.9847902224572692</v>
       </c>
       <c r="D16">
-        <v>1.002162594642295</v>
+        <v>1.010215375163241</v>
       </c>
       <c r="E16">
-        <v>0.9823217955983548</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9916343204399395</v>
+        <v>1.012750872250717</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03792949645451</v>
+        <v>1.044103832357991</v>
       </c>
       <c r="J16">
-        <v>1.007345325546315</v>
+        <v>1.013541803816469</v>
       </c>
       <c r="K16">
-        <v>1.016456348958258</v>
+        <v>1.024366461971872</v>
       </c>
       <c r="L16">
-        <v>0.9969801027865909</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.006119153297627</v>
+        <v>1.026857646860076</v>
       </c>
       <c r="N16">
-        <v>1.008775871452715</v>
+        <v>1.014981149432759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9824191918532793</v>
+        <v>0.9887953234067401</v>
       </c>
       <c r="D17">
-        <v>1.005377059090157</v>
+        <v>1.013287410473201</v>
       </c>
       <c r="E17">
-        <v>0.9860891848808457</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9955496284216381</v>
+        <v>1.016101344000394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039606774923535</v>
+        <v>1.045569109140402</v>
       </c>
       <c r="J17">
-        <v>1.010570151610875</v>
+        <v>1.016690996136729</v>
       </c>
       <c r="K17">
-        <v>1.019291461291006</v>
+        <v>1.027066406385682</v>
       </c>
       <c r="L17">
-        <v>1.000345598050195</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.009636141339712</v>
+        <v>1.029832827716489</v>
       </c>
       <c r="N17">
-        <v>1.012005277140179</v>
+        <v>1.018134813967331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9847685577198648</v>
+        <v>0.9910956163586989</v>
       </c>
       <c r="D18">
-        <v>1.007221997494724</v>
+        <v>1.015052607229435</v>
       </c>
       <c r="E18">
-        <v>0.9882496871204168</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9977956843719548</v>
+        <v>1.018026999225698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040567299667095</v>
+        <v>1.046409024922844</v>
       </c>
       <c r="J18">
-        <v>1.01241960245</v>
+        <v>1.018499293186161</v>
       </c>
       <c r="K18">
-        <v>1.020917223503098</v>
+        <v>1.028616474873646</v>
       </c>
       <c r="L18">
-        <v>1.002274376345421</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.01165257596452</v>
+        <v>1.031541652835819</v>
       </c>
       <c r="N18">
-        <v>1.01385735441163</v>
+        <v>1.019945679005987</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9855631985357529</v>
+        <v>0.9918740670612168</v>
       </c>
       <c r="D19">
-        <v>1.007846146023554</v>
+        <v>1.01565010163528</v>
       </c>
       <c r="E19">
-        <v>0.9889802979056733</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.998555349177457</v>
+        <v>1.018678886188831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040891885091576</v>
+        <v>1.046692979340697</v>
       </c>
       <c r="J19">
-        <v>1.013045038817284</v>
+        <v>1.019111171301073</v>
       </c>
       <c r="K19">
-        <v>1.021466980983729</v>
+        <v>1.029140928443415</v>
       </c>
       <c r="L19">
-        <v>1.002926414811812</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.012334388253929</v>
+        <v>1.032119945473364</v>
       </c>
       <c r="N19">
-        <v>1.014483678970295</v>
+        <v>1.020558426058006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9819839398924267</v>
+        <v>0.9883693631616073</v>
       </c>
       <c r="D20">
-        <v>1.005035320017621</v>
+        <v>1.012960600472854</v>
       </c>
       <c r="E20">
-        <v>0.985688850931465</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9951335004560157</v>
+        <v>1.01574486461433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039428682337174</v>
+        <v>1.045413441355148</v>
       </c>
       <c r="J20">
-        <v>1.010227461396702</v>
+        <v>1.01635610742986</v>
       </c>
       <c r="K20">
-        <v>1.01899020349748</v>
+        <v>1.026779318420287</v>
       </c>
       <c r="L20">
-        <v>0.9999881006596695</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.009262464572005</v>
+        <v>1.029516396387462</v>
       </c>
       <c r="N20">
-        <v>1.011662100266595</v>
+        <v>1.017799449680086</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698691299552982</v>
+        <v>0.9765395676964781</v>
       </c>
       <c r="D21">
-        <v>0.9955314832043601</v>
+        <v>1.003892867206349</v>
       </c>
       <c r="E21">
-        <v>0.9745374659785613</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9835492189352338</v>
+        <v>1.005858399906527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034455131183036</v>
+        <v>1.041074743660122</v>
       </c>
       <c r="J21">
-        <v>1.000682953559348</v>
+        <v>1.007051995573181</v>
       </c>
       <c r="K21">
-        <v>1.010598010432307</v>
+        <v>1.018800861450827</v>
       </c>
       <c r="L21">
-        <v>0.9900178422970023</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9988491058374347</v>
+        <v>1.020729626665289</v>
       </c>
       <c r="N21">
-        <v>1.002104038133341</v>
+        <v>1.008482124917373</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618423829108838</v>
+        <v>0.9687317168119229</v>
       </c>
       <c r="D22">
-        <v>0.9892440140774319</v>
+        <v>0.9979177973516337</v>
       </c>
       <c r="E22">
-        <v>0.9671407017852662</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9758723552727622</v>
+        <v>0.9993482199465032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031144132150772</v>
+        <v>1.038196651140872</v>
       </c>
       <c r="J22">
-        <v>0.9943537642138102</v>
+        <v>1.000908408642307</v>
       </c>
       <c r="K22">
-        <v>1.005031603528913</v>
+        <v>1.013530616243871</v>
       </c>
       <c r="L22">
-        <v>0.9833924749219014</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9919374323300745</v>
+        <v>1.014932599794173</v>
       </c>
       <c r="N22">
-        <v>0.9957658606129645</v>
+        <v>1.002329813388378</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9661394061042222</v>
+        <v>0.9729084161893735</v>
       </c>
       <c r="D23">
-        <v>0.9926089545899299</v>
+        <v>1.001113047060035</v>
       </c>
       <c r="E23">
-        <v>0.971101248153554</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9799822140643529</v>
+        <v>1.002829218782475</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032918063671498</v>
+        <v>1.039737541245451</v>
       </c>
       <c r="J23">
-        <v>0.9977424811499496</v>
+        <v>1.004195026985038</v>
       </c>
       <c r="K23">
-        <v>1.008012021904904</v>
+        <v>1.016350185393956</v>
       </c>
       <c r="L23">
-        <v>0.9869411174541969</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9956386550931281</v>
+        <v>1.018033318557769</v>
       </c>
       <c r="N23">
-        <v>0.9991593899158446</v>
+        <v>1.005621099106137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9821807321015038</v>
+        <v>0.9885619464481894</v>
       </c>
       <c r="D24">
-        <v>1.005189829486994</v>
+        <v>1.013108353912755</v>
       </c>
       <c r="E24">
-        <v>0.9858698582628478</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9953216466491606</v>
+        <v>1.015906030366011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039509209486212</v>
+        <v>1.045483826345861</v>
       </c>
       <c r="J24">
-        <v>1.010382405354154</v>
+        <v>1.016507517145311</v>
       </c>
       <c r="K24">
-        <v>1.019126414783544</v>
+        <v>1.026909117320952</v>
       </c>
       <c r="L24">
-        <v>1.000149743714869</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.009431420562085</v>
+        <v>1.029659459778748</v>
       </c>
       <c r="N24">
-        <v>1.011817264262239</v>
+        <v>1.017951074414699</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9992749356019416</v>
+        <v>1.005337249955885</v>
       </c>
       <c r="D25">
-        <v>1.018625031726531</v>
+        <v>1.025992946021627</v>
       </c>
       <c r="E25">
-        <v>1.001574479254638</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.011660658894265</v>
+        <v>1.029970106207944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046466691670851</v>
+        <v>1.051578847074079</v>
       </c>
       <c r="J25">
-        <v>1.023826725718901</v>
+        <v>1.029686319786314</v>
       </c>
       <c r="K25">
-        <v>1.030940937967902</v>
+        <v>1.038200723372021</v>
       </c>
       <c r="L25">
-        <v>1.014148402531651</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.024080615347255</v>
+        <v>1.042120330665244</v>
       </c>
       <c r="N25">
-        <v>1.025280677103989</v>
+        <v>1.031148592467083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017793737279907</v>
+        <v>1.058617298265595</v>
       </c>
       <c r="D2">
-        <v>1.035575335397264</v>
+        <v>1.060041922632564</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.04044399804817</v>
+        <v>1.069491942642792</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056050198892425</v>
+        <v>1.04683730620434</v>
       </c>
       <c r="J2">
-        <v>1.03945496061212</v>
+        <v>1.06360758806204</v>
       </c>
       <c r="K2">
-        <v>1.046560336953414</v>
+        <v>1.062769780995098</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.051367234706599</v>
+        <v>1.072194306124119</v>
       </c>
       <c r="N2">
-        <v>1.04093110588334</v>
+        <v>1.065118032834584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026381191783225</v>
+        <v>1.060249052517938</v>
       </c>
       <c r="D3">
-        <v>1.042186519161063</v>
+        <v>1.061291753815073</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.047678597799441</v>
+        <v>1.070891179892598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059099474704239</v>
+        <v>1.047290171611087</v>
       </c>
       <c r="J3">
-        <v>1.046177631650607</v>
+        <v>1.064889004872702</v>
       </c>
       <c r="K3">
-        <v>1.052306636330417</v>
+        <v>1.063832859810783</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.057735710514431</v>
+        <v>1.073408278874931</v>
       </c>
       <c r="N3">
-        <v>1.047663323885803</v>
+        <v>1.066401269404097</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031748101286255</v>
+        <v>1.061302404144411</v>
       </c>
       <c r="D4">
-        <v>1.046319697160371</v>
+        <v>1.062098094487935</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.052205410852616</v>
+        <v>1.07179443861311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060989277402055</v>
+        <v>1.047580505005246</v>
       </c>
       <c r="J4">
-        <v>1.050373134483304</v>
+        <v>1.065715307693802</v>
       </c>
       <c r="K4">
-        <v>1.055889466251085</v>
+        <v>1.064517803293111</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.061712088623955</v>
+        <v>1.074191130198527</v>
       </c>
       <c r="N4">
-        <v>1.051864784813753</v>
+        <v>1.067228745669981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033961799374968</v>
+        <v>1.061744645708584</v>
       </c>
       <c r="D5">
-        <v>1.048024714440284</v>
+        <v>1.062436517494834</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.054073748905973</v>
+        <v>1.072173664696835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061764875025442</v>
+        <v>1.047701918313987</v>
       </c>
       <c r="J5">
-        <v>1.052102156524566</v>
+        <v>1.066062009937999</v>
       </c>
       <c r="K5">
-        <v>1.057365163357824</v>
+        <v>1.064805057359582</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.063351224701475</v>
+        <v>1.074519609796732</v>
       </c>
       <c r="N5">
-        <v>1.053596262264634</v>
+        <v>1.067575940271132</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034331072232624</v>
+        <v>1.061818865900826</v>
       </c>
       <c r="D6">
-        <v>1.048309140914618</v>
+        <v>1.062493307447477</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.054385475503421</v>
+        <v>1.072237309130241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061894023414302</v>
+        <v>1.04772226655338</v>
       </c>
       <c r="J6">
-        <v>1.052390488833837</v>
+        <v>1.066120183424506</v>
       </c>
       <c r="K6">
-        <v>1.05761120107844</v>
+        <v>1.064853247976187</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.063624591016976</v>
+        <v>1.07457472619451</v>
       </c>
       <c r="N6">
-        <v>1.053885004038858</v>
+        <v>1.067634196370663</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031777844431045</v>
+        <v>1.061308315690073</v>
       </c>
       <c r="D7">
-        <v>1.04634260507489</v>
+        <v>1.062102618712206</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978918</v>
       </c>
       <c r="F7">
-        <v>1.052230509352293</v>
+        <v>1.071799507818334</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060999713813774</v>
+        <v>1.047582129856574</v>
       </c>
       <c r="J7">
-        <v>1.050396371591975</v>
+        <v>1.065719942987624</v>
       </c>
       <c r="K7">
-        <v>1.055909302161457</v>
+        <v>1.064521644320973</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459044</v>
       </c>
       <c r="M7">
-        <v>1.061734116111371</v>
+        <v>1.074195521827441</v>
       </c>
       <c r="N7">
-        <v>1.051888054921784</v>
+        <v>1.067233387546452</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020737020125947</v>
+        <v>1.059169282444112</v>
       </c>
       <c r="D8">
-        <v>1.037840889082545</v>
+        <v>1.060464807350346</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.042922367472707</v>
+        <v>1.069965270095852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057098633663695</v>
+        <v>1.046990915663224</v>
       </c>
       <c r="J8">
-        <v>1.041760321937342</v>
+        <v>1.064041246469577</v>
       </c>
       <c r="K8">
-        <v>1.048531562993582</v>
+        <v>1.063129666697585</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>1.053550698948846</v>
+        <v>1.072605131716844</v>
       </c>
       <c r="N8">
-        <v>1.043239741086073</v>
+        <v>1.065552307086801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9996820666008532</v>
+        <v>1.055380342339274</v>
       </c>
       <c r="D9">
-        <v>1.02164643346278</v>
+        <v>1.057560155665237</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.025223419154546</v>
+        <v>1.066716313888461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049532609903745</v>
+        <v>1.045928267398266</v>
       </c>
       <c r="J9">
-        <v>1.025246056913443</v>
+        <v>1.061060857180596</v>
       </c>
       <c r="K9">
-        <v>1.03439781029624</v>
+        <v>1.060653969101317</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.037920102642525</v>
+        <v>1.06978184263405</v>
       </c>
       <c r="N9">
-        <v>1.026702023911627</v>
+        <v>1.062567685303174</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9843326153148488</v>
+        <v>1.052840407515341</v>
       </c>
       <c r="D10">
-        <v>1.009864493180722</v>
+        <v>1.055610692466955</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.012368251966488</v>
+        <v>1.064538495484569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043936192088998</v>
+        <v>1.045205577076733</v>
       </c>
       <c r="J10">
-        <v>1.013181936317641</v>
+        <v>1.059058352233933</v>
       </c>
       <c r="K10">
-        <v>1.024057896384102</v>
+        <v>1.05898765710459</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.026517727783054</v>
+        <v>1.067885135116126</v>
       </c>
       <c r="N10">
-        <v>1.014620770880804</v>
+        <v>1.060562336569796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9773097792163431</v>
+        <v>1.051737108344036</v>
       </c>
       <c r="D11">
-        <v>1.004482723422956</v>
+        <v>1.054763348559596</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.006501262903951</v>
+        <v>1.063592541333511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041358074587728</v>
+        <v>1.044889208849593</v>
       </c>
       <c r="J11">
-        <v>1.007657940994258</v>
+        <v>1.058187420921649</v>
       </c>
       <c r="K11">
-        <v>1.019320594406675</v>
+        <v>1.058262259133563</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.02130160762158</v>
+        <v>1.067060280957539</v>
       </c>
       <c r="N11">
-        <v>1.009088930850451</v>
+        <v>1.059690168435152</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9746379600363452</v>
+        <v>1.051326755192962</v>
       </c>
       <c r="D12">
-        <v>1.002436877444683</v>
+        <v>1.054448114539229</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.004271711490306</v>
+        <v>1.063240718634691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040374752292165</v>
+        <v>1.044771174309404</v>
       </c>
       <c r="J12">
-        <v>1.005555869954445</v>
+        <v>1.057863331060778</v>
       </c>
       <c r="K12">
-        <v>1.017517539174131</v>
+        <v>1.057992222630633</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.019317527307503</v>
+        <v>1.066753347338378</v>
       </c>
       <c r="N12">
-        <v>1.006983874628651</v>
+        <v>1.059365618329504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9752140549349063</v>
+        <v>1.051414801945716</v>
       </c>
       <c r="D13">
-        <v>1.002877921544854</v>
+        <v>1.054515755766649</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.004752325227638</v>
+        <v>1.06331620648184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040586884493696</v>
+        <v>1.044796516784496</v>
       </c>
       <c r="J13">
-        <v>1.006009135183626</v>
+        <v>1.057932876189837</v>
       </c>
       <c r="K13">
-        <v>1.017906342681396</v>
+        <v>1.058050173291017</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.019745311060829</v>
+        <v>1.066819210515387</v>
       </c>
       <c r="N13">
-        <v>1.007437783546448</v>
+        <v>1.059435262220623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9770902582087332</v>
+        <v>1.05170319949733</v>
       </c>
       <c r="D14">
-        <v>1.004314598388889</v>
+        <v>1.054737301327487</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.006318026080749</v>
+        <v>1.063563468867931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041277332534478</v>
+        <v>1.044879462739254</v>
       </c>
       <c r="J14">
-        <v>1.00748524014614</v>
+        <v>1.058160643596768</v>
       </c>
       <c r="K14">
-        <v>1.019172466540783</v>
+        <v>1.058239949951017</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.021138583083863</v>
+        <v>1.067034920927136</v>
       </c>
       <c r="N14">
-        <v>1.00891598474732</v>
+        <v>1.059663353083398</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782376522629773</v>
+        <v>1.051880818932438</v>
       </c>
       <c r="D15">
-        <v>1.005193423785683</v>
+        <v>1.054873737263003</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.007275874320315</v>
+        <v>1.063715755003793</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041699255948801</v>
+        <v>1.044930499261734</v>
       </c>
       <c r="J15">
-        <v>1.008387895733511</v>
+        <v>1.058300900465792</v>
       </c>
       <c r="K15">
-        <v>1.019946672846756</v>
+        <v>1.058356798966018</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.021990697939942</v>
+        <v>1.067167754568777</v>
       </c>
       <c r="N15">
-        <v>1.009819922209161</v>
+        <v>1.059803809133264</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9847902224572692</v>
+        <v>1.05291355508797</v>
       </c>
       <c r="D16">
-        <v>1.010215375163241</v>
+        <v>1.055666859338009</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.012750872250717</v>
+        <v>1.064601212387803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044103832357991</v>
+        <v>1.045226500548542</v>
       </c>
       <c r="J16">
-        <v>1.013541803816469</v>
+        <v>1.059116071351845</v>
       </c>
       <c r="K16">
-        <v>1.024366461971872</v>
+        <v>1.059035716961326</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.026857646860076</v>
+        <v>1.067939801950601</v>
       </c>
       <c r="N16">
-        <v>1.014981149432759</v>
+        <v>1.060620137655476</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9887953234067401</v>
+        <v>1.05356041861164</v>
       </c>
       <c r="D17">
-        <v>1.013287410473201</v>
+        <v>1.056163496512173</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.016101344000394</v>
+        <v>1.065155840488847</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045569109140402</v>
+        <v>1.045411250442858</v>
       </c>
       <c r="J17">
-        <v>1.016690996136729</v>
+        <v>1.059626372274316</v>
       </c>
       <c r="K17">
-        <v>1.027066406385682</v>
+        <v>1.059460540535935</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.029832827716489</v>
+        <v>1.068423124705412</v>
       </c>
       <c r="N17">
-        <v>1.018134813967331</v>
+        <v>1.06113116326379</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9910956163586989</v>
+        <v>1.053937387338139</v>
       </c>
       <c r="D18">
-        <v>1.015052607229435</v>
+        <v>1.05645286719911</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.018026999225698</v>
+        <v>1.065479062322438</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046409024922844</v>
+        <v>1.045518680480247</v>
       </c>
       <c r="J18">
-        <v>1.018499293186161</v>
+        <v>1.059923653062707</v>
       </c>
       <c r="K18">
-        <v>1.028616474873646</v>
+        <v>1.059707959806028</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.031541652835819</v>
+        <v>1.06870469518865</v>
       </c>
       <c r="N18">
-        <v>1.019945679005987</v>
+        <v>1.061428866224999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9918740670612168</v>
+        <v>1.054065867400702</v>
       </c>
       <c r="D19">
-        <v>1.01565010163528</v>
+        <v>1.056551482950142</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.018678886188831</v>
+        <v>1.065589224879267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046692979340697</v>
+        <v>1.04555525526806</v>
       </c>
       <c r="J19">
-        <v>1.019111171301073</v>
+        <v>1.060024955861081</v>
       </c>
       <c r="K19">
-        <v>1.029140928443415</v>
+        <v>1.059792260375802</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.032119945473364</v>
+        <v>1.068800645487208</v>
       </c>
       <c r="N19">
-        <v>1.020558426058006</v>
+        <v>1.061530312884966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9883693631616073</v>
+        <v>1.053491051116377</v>
       </c>
       <c r="D20">
-        <v>1.012960600472854</v>
+        <v>1.056110244115674</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>1.01574486461433</v>
+        <v>1.065096363529605</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045413441355148</v>
+        <v>1.045391462845018</v>
       </c>
       <c r="J20">
-        <v>1.01635610742986</v>
+        <v>1.059571660074532</v>
       </c>
       <c r="K20">
-        <v>1.026779318420287</v>
+        <v>1.059414999649707</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.029516396387462</v>
+        <v>1.068371304351123</v>
       </c>
       <c r="N20">
-        <v>1.017799449680086</v>
+        <v>1.061076373366406</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9765395676964781</v>
+        <v>1.051618288593105</v>
       </c>
       <c r="D21">
-        <v>1.003892867206349</v>
+        <v>1.054672075365074</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>1.005858399906527</v>
+        <v>1.063490668856508</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041074743660122</v>
+        <v>1.044855051651162</v>
       </c>
       <c r="J21">
-        <v>1.007051995573181</v>
+        <v>1.058093588072794</v>
       </c>
       <c r="K21">
-        <v>1.018800861450827</v>
+        <v>1.058184081856101</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>1.020729626665289</v>
+        <v>1.066971414742942</v>
       </c>
       <c r="N21">
-        <v>1.008482124917373</v>
+        <v>1.059596202332888</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9687317168119229</v>
+        <v>1.050437684448142</v>
       </c>
       <c r="D22">
-        <v>0.9979177973516337</v>
+        <v>1.053764985584887</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9993482199465032</v>
+        <v>1.062478477306684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038196651140872</v>
+        <v>1.044514770233232</v>
       </c>
       <c r="J22">
-        <v>1.000908408642307</v>
+        <v>1.057160862559593</v>
       </c>
       <c r="K22">
-        <v>1.013530616243871</v>
+        <v>1.057406728613322</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>1.014932599794173</v>
+        <v>1.066088084174288</v>
       </c>
       <c r="N22">
-        <v>1.002329813388378</v>
+        <v>1.058662152242473</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9729084161893735</v>
+        <v>1.051063845970484</v>
       </c>
       <c r="D23">
-        <v>1.001113047060035</v>
+        <v>1.0542461251142</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>1.002829218782475</v>
+        <v>1.06301531191224</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039737541245451</v>
+        <v>1.044695447541299</v>
       </c>
       <c r="J23">
-        <v>1.004195026985038</v>
+        <v>1.05765564435424</v>
       </c>
       <c r="K23">
-        <v>1.016350185393956</v>
+        <v>1.057819146216395</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>1.018033318557769</v>
+        <v>1.066556657775261</v>
       </c>
       <c r="N23">
-        <v>1.005621099106137</v>
+        <v>1.059157636684021</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9885619464481894</v>
+        <v>1.053522396339228</v>
       </c>
       <c r="D24">
-        <v>1.013108353912755</v>
+        <v>1.056134307537439</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011825</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>1.015906030366011</v>
+        <v>1.065123239482949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045483826345861</v>
+        <v>1.045400405032917</v>
       </c>
       <c r="J24">
-        <v>1.016507517145311</v>
+        <v>1.059596383303074</v>
       </c>
       <c r="K24">
-        <v>1.026909117320952</v>
+        <v>1.059435578768893</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.029659459778748</v>
+        <v>1.068394720800091</v>
       </c>
       <c r="N24">
-        <v>1.017951074414699</v>
+        <v>1.061101131704768</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>1.005337249955885</v>
+        <v>1.05636228292944</v>
       </c>
       <c r="D25">
-        <v>1.025992946021627</v>
+        <v>1.058313336410784</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.029970106207944</v>
+        <v>1.067558294092036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051578847074079</v>
+        <v>1.046205482963907</v>
       </c>
       <c r="J25">
-        <v>1.029686319786314</v>
+        <v>1.061834062410455</v>
       </c>
       <c r="K25">
-        <v>1.038200723372021</v>
+        <v>1.061296753885314</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.042120330665244</v>
+        <v>1.070514250599938</v>
       </c>
       <c r="N25">
-        <v>1.031148592467083</v>
+        <v>1.063341988573147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058617298265595</v>
+        <v>1.017793737279908</v>
       </c>
       <c r="D2">
-        <v>1.060041922632564</v>
+        <v>1.035575335397265</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.069491942642792</v>
+        <v>1.040443998048171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04683730620434</v>
+        <v>1.056050198892426</v>
       </c>
       <c r="J2">
-        <v>1.06360758806204</v>
+        <v>1.039454960612121</v>
       </c>
       <c r="K2">
-        <v>1.062769780995098</v>
+        <v>1.046560336953415</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.072194306124119</v>
+        <v>1.0513672347066</v>
       </c>
       <c r="N2">
-        <v>1.065118032834584</v>
+        <v>1.040931105883341</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060249052517938</v>
+        <v>1.026381191783225</v>
       </c>
       <c r="D3">
-        <v>1.061291753815073</v>
+        <v>1.042186519161063</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.070891179892598</v>
+        <v>1.047678597799441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047290171611087</v>
+        <v>1.059099474704239</v>
       </c>
       <c r="J3">
-        <v>1.064889004872702</v>
+        <v>1.046177631650608</v>
       </c>
       <c r="K3">
-        <v>1.063832859810783</v>
+        <v>1.052306636330417</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.073408278874931</v>
+        <v>1.057735710514431</v>
       </c>
       <c r="N3">
-        <v>1.066401269404097</v>
+        <v>1.047663323885804</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061302404144411</v>
+        <v>1.031748101286257</v>
       </c>
       <c r="D4">
-        <v>1.062098094487935</v>
+        <v>1.046319697160373</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.07179443861311</v>
+        <v>1.052205410852618</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047580505005246</v>
+        <v>1.060989277402056</v>
       </c>
       <c r="J4">
-        <v>1.065715307693802</v>
+        <v>1.050373134483307</v>
       </c>
       <c r="K4">
-        <v>1.064517803293111</v>
+        <v>1.055889466251087</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.074191130198527</v>
+        <v>1.061712088623957</v>
       </c>
       <c r="N4">
-        <v>1.067228745669981</v>
+        <v>1.051864784813756</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061744645708584</v>
+        <v>1.03396179937497</v>
       </c>
       <c r="D5">
-        <v>1.062436517494834</v>
+        <v>1.048024714440286</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.072173664696835</v>
+        <v>1.054073748905975</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047701918313987</v>
+        <v>1.061764875025444</v>
       </c>
       <c r="J5">
-        <v>1.066062009937999</v>
+        <v>1.052102156524568</v>
       </c>
       <c r="K5">
-        <v>1.064805057359582</v>
+        <v>1.057365163357826</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.074519609796732</v>
+        <v>1.063351224701477</v>
       </c>
       <c r="N5">
-        <v>1.067575940271132</v>
+        <v>1.053596262264637</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061818865900826</v>
+        <v>1.034331072232623</v>
       </c>
       <c r="D6">
-        <v>1.062493307447477</v>
+        <v>1.048309140914617</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.072237309130241</v>
+        <v>1.05438547550342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04772226655338</v>
+        <v>1.061894023414302</v>
       </c>
       <c r="J6">
-        <v>1.066120183424506</v>
+        <v>1.052390488833837</v>
       </c>
       <c r="K6">
-        <v>1.064853247976187</v>
+        <v>1.057611201078439</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.07457472619451</v>
+        <v>1.063624591016976</v>
       </c>
       <c r="N6">
-        <v>1.067634196370663</v>
+        <v>1.053885004038857</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061308315690073</v>
+        <v>1.031777844431043</v>
       </c>
       <c r="D7">
-        <v>1.062102618712206</v>
+        <v>1.046342605074888</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978918</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.071799507818334</v>
+        <v>1.052230509352291</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047582129856574</v>
+        <v>1.060999713813772</v>
       </c>
       <c r="J7">
-        <v>1.065719942987624</v>
+        <v>1.050396371591974</v>
       </c>
       <c r="K7">
-        <v>1.064521644320973</v>
+        <v>1.055909302161456</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459044</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.074195521827441</v>
+        <v>1.061734116111369</v>
       </c>
       <c r="N7">
-        <v>1.067233387546452</v>
+        <v>1.051888054921782</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.059169282444112</v>
+        <v>1.020737020125951</v>
       </c>
       <c r="D8">
-        <v>1.060464807350346</v>
+        <v>1.037840889082548</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.069965270095852</v>
+        <v>1.04292236747271</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046990915663224</v>
+        <v>1.057098633663697</v>
       </c>
       <c r="J8">
-        <v>1.064041246469577</v>
+        <v>1.041760321937345</v>
       </c>
       <c r="K8">
-        <v>1.063129666697585</v>
+        <v>1.048531562993585</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.072605131716844</v>
+        <v>1.053550698948849</v>
       </c>
       <c r="N8">
-        <v>1.065552307086801</v>
+        <v>1.043239741086075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055380342339274</v>
+        <v>0.9996820666008552</v>
       </c>
       <c r="D9">
-        <v>1.057560155665237</v>
+        <v>1.021646433462781</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.066716313888461</v>
+        <v>1.025223419154548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045928267398266</v>
+        <v>1.049532609903746</v>
       </c>
       <c r="J9">
-        <v>1.061060857180596</v>
+        <v>1.025246056913445</v>
       </c>
       <c r="K9">
-        <v>1.060653969101317</v>
+        <v>1.034397810296241</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.06978184263405</v>
+        <v>1.037920102642526</v>
       </c>
       <c r="N9">
-        <v>1.062567685303174</v>
+        <v>1.026702023911628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052840407515341</v>
+        <v>0.9843326153148492</v>
       </c>
       <c r="D10">
-        <v>1.055610692466955</v>
+        <v>1.009864493180722</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.064538495484569</v>
+        <v>1.012368251966488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045205577076733</v>
+        <v>1.043936192088998</v>
       </c>
       <c r="J10">
-        <v>1.059058352233933</v>
+        <v>1.013181936317641</v>
       </c>
       <c r="K10">
-        <v>1.05898765710459</v>
+        <v>1.024057896384102</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.067885135116126</v>
+        <v>1.026517727783053</v>
       </c>
       <c r="N10">
-        <v>1.060562336569796</v>
+        <v>1.014620770880804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051737108344036</v>
+        <v>0.9773097792163397</v>
       </c>
       <c r="D11">
-        <v>1.054763348559596</v>
+        <v>1.004482723422953</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.063592541333511</v>
+        <v>1.006501262903948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044889208849593</v>
+        <v>1.041358074587726</v>
       </c>
       <c r="J11">
-        <v>1.058187420921649</v>
+        <v>1.007657940994255</v>
       </c>
       <c r="K11">
-        <v>1.058262259133563</v>
+        <v>1.019320594406672</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.067060280957539</v>
+        <v>1.021301607621577</v>
       </c>
       <c r="N11">
-        <v>1.059690168435152</v>
+        <v>1.009088930850448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051326755192962</v>
+        <v>0.9746379600363445</v>
       </c>
       <c r="D12">
-        <v>1.054448114539229</v>
+        <v>1.002436877444682</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.063240718634691</v>
+        <v>1.004271711490305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044771174309404</v>
+        <v>1.040374752292164</v>
       </c>
       <c r="J12">
-        <v>1.057863331060778</v>
+        <v>1.005555869954445</v>
       </c>
       <c r="K12">
-        <v>1.057992222630633</v>
+        <v>1.01751753917413</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.066753347338378</v>
+        <v>1.019317527307502</v>
       </c>
       <c r="N12">
-        <v>1.059365618329504</v>
+        <v>1.00698387462865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051414801945716</v>
+        <v>0.9752140549349062</v>
       </c>
       <c r="D13">
-        <v>1.054515755766649</v>
+        <v>1.002877921544854</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.06331620648184</v>
+        <v>1.004752325227638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044796516784496</v>
+        <v>1.040586884493696</v>
       </c>
       <c r="J13">
-        <v>1.057932876189837</v>
+        <v>1.006009135183626</v>
       </c>
       <c r="K13">
-        <v>1.058050173291017</v>
+        <v>1.017906342681396</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.066819210515387</v>
+        <v>1.019745311060829</v>
       </c>
       <c r="N13">
-        <v>1.059435262220623</v>
+        <v>1.007437783546447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05170319949733</v>
+        <v>0.9770902582087325</v>
       </c>
       <c r="D14">
-        <v>1.054737301327487</v>
+        <v>1.004314598388888</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.063563468867931</v>
+        <v>1.006318026080748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044879462739254</v>
+        <v>1.041277332534478</v>
       </c>
       <c r="J14">
-        <v>1.058160643596768</v>
+        <v>1.007485240146139</v>
       </c>
       <c r="K14">
-        <v>1.058239949951017</v>
+        <v>1.019172466540782</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.067034920927136</v>
+        <v>1.021138583083862</v>
       </c>
       <c r="N14">
-        <v>1.059663353083398</v>
+        <v>1.008915984747319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051880818932438</v>
+        <v>0.9782376522629772</v>
       </c>
       <c r="D15">
-        <v>1.054873737263003</v>
+        <v>1.005193423785682</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.063715755003793</v>
+        <v>1.007275874320315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044930499261734</v>
+        <v>1.041699255948801</v>
       </c>
       <c r="J15">
-        <v>1.058300900465792</v>
+        <v>1.008387895733511</v>
       </c>
       <c r="K15">
-        <v>1.058356798966018</v>
+        <v>1.019946672846755</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.067167754568777</v>
+        <v>1.021990697939942</v>
       </c>
       <c r="N15">
-        <v>1.059803809133264</v>
+        <v>1.00981992220916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05291355508797</v>
+        <v>0.9847902224572725</v>
       </c>
       <c r="D16">
-        <v>1.055666859338009</v>
+        <v>1.010215375163244</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.064601212387803</v>
+        <v>1.01275087225072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045226500548542</v>
+        <v>1.044103832357992</v>
       </c>
       <c r="J16">
-        <v>1.059116071351845</v>
+        <v>1.013541803816473</v>
       </c>
       <c r="K16">
-        <v>1.059035716961326</v>
+        <v>1.024366461971875</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.067939801950601</v>
+        <v>1.026857646860079</v>
       </c>
       <c r="N16">
-        <v>1.060620137655476</v>
+        <v>1.014981149432762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05356041861164</v>
+        <v>0.988795323406739</v>
       </c>
       <c r="D17">
-        <v>1.056163496512173</v>
+        <v>1.0132874104732</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.065155840488847</v>
+        <v>1.016101344000393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045411250442858</v>
+        <v>1.045569109140402</v>
       </c>
       <c r="J17">
-        <v>1.059626372274316</v>
+        <v>1.016690996136729</v>
       </c>
       <c r="K17">
-        <v>1.059460540535935</v>
+        <v>1.027066406385682</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.068423124705412</v>
+        <v>1.029832827716488</v>
       </c>
       <c r="N17">
-        <v>1.06113116326379</v>
+        <v>1.01813481396733</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053937387338139</v>
+        <v>0.9910956163587005</v>
       </c>
       <c r="D18">
-        <v>1.05645286719911</v>
+        <v>1.015052607229437</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.065479062322438</v>
+        <v>1.018026999225699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045518680480247</v>
+        <v>1.046409024922845</v>
       </c>
       <c r="J18">
-        <v>1.059923653062707</v>
+        <v>1.018499293186162</v>
       </c>
       <c r="K18">
-        <v>1.059707959806028</v>
+        <v>1.028616474873648</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.06870469518865</v>
+        <v>1.031541652835821</v>
       </c>
       <c r="N18">
-        <v>1.061428866224999</v>
+        <v>1.019945679005988</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054065867400702</v>
+        <v>0.9918740670612145</v>
       </c>
       <c r="D19">
-        <v>1.056551482950142</v>
+        <v>1.015650101635278</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.065589224879267</v>
+        <v>1.018678886188829</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04555525526806</v>
+        <v>1.046692979340696</v>
       </c>
       <c r="J19">
-        <v>1.060024955861081</v>
+        <v>1.019111171301071</v>
       </c>
       <c r="K19">
-        <v>1.059792260375802</v>
+        <v>1.029140928443413</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.068800645487208</v>
+        <v>1.032119945473361</v>
       </c>
       <c r="N19">
-        <v>1.061530312884966</v>
+        <v>1.020558426058004</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053491051116377</v>
+        <v>0.9883693631616068</v>
       </c>
       <c r="D20">
-        <v>1.056110244115674</v>
+        <v>1.012960600472853</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.065096363529605</v>
+        <v>1.01574486461433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045391462845018</v>
+        <v>1.045413441355147</v>
       </c>
       <c r="J20">
-        <v>1.059571660074532</v>
+        <v>1.01635610742986</v>
       </c>
       <c r="K20">
-        <v>1.059414999649707</v>
+        <v>1.026779318420287</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.068371304351123</v>
+        <v>1.029516396387462</v>
       </c>
       <c r="N20">
-        <v>1.061076373366406</v>
+        <v>1.017799449680085</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051618288593105</v>
+        <v>0.9765395676964798</v>
       </c>
       <c r="D21">
-        <v>1.054672075365074</v>
+        <v>1.003892867206351</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.063490668856508</v>
+        <v>1.005858399906529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044855051651162</v>
+        <v>1.041074743660123</v>
       </c>
       <c r="J21">
-        <v>1.058093588072794</v>
+        <v>1.007051995573182</v>
       </c>
       <c r="K21">
-        <v>1.058184081856101</v>
+        <v>1.018800861450828</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>1.066971414742942</v>
+        <v>1.020729626665291</v>
       </c>
       <c r="N21">
-        <v>1.059596202332888</v>
+        <v>1.008482124917375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050437684448142</v>
+        <v>0.9687317168119249</v>
       </c>
       <c r="D22">
-        <v>1.053764985584887</v>
+        <v>0.9979177973516355</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651168</v>
       </c>
       <c r="F22">
-        <v>1.062478477306684</v>
+        <v>0.9993482199465047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044514770233232</v>
+        <v>1.038196651140874</v>
       </c>
       <c r="J22">
-        <v>1.057160862559593</v>
+        <v>1.000908408642309</v>
       </c>
       <c r="K22">
-        <v>1.057406728613322</v>
+        <v>1.013530616243873</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572522</v>
       </c>
       <c r="M22">
-        <v>1.066088084174288</v>
+        <v>1.014932599794174</v>
       </c>
       <c r="N22">
-        <v>1.058662152242473</v>
+        <v>1.00232981338838</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051063845970484</v>
+        <v>0.9729084161893728</v>
       </c>
       <c r="D23">
-        <v>1.0542461251142</v>
+        <v>1.001113047060034</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.06301531191224</v>
+        <v>1.002829218782474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044695447541299</v>
+        <v>1.039737541245451</v>
       </c>
       <c r="J23">
-        <v>1.05765564435424</v>
+        <v>1.004195026985037</v>
       </c>
       <c r="K23">
-        <v>1.057819146216395</v>
+        <v>1.016350185393955</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.947539133028532</v>
       </c>
       <c r="M23">
-        <v>1.066556657775261</v>
+        <v>1.018033318557767</v>
       </c>
       <c r="N23">
-        <v>1.059157636684021</v>
+        <v>1.005621099106136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053522396339228</v>
+        <v>0.9885619464481907</v>
       </c>
       <c r="D24">
-        <v>1.056134307537439</v>
+        <v>1.013108353912756</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.065123239482949</v>
+        <v>1.015906030366013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045400405032917</v>
+        <v>1.045483826345862</v>
       </c>
       <c r="J24">
-        <v>1.059596383303074</v>
+        <v>1.016507517145312</v>
       </c>
       <c r="K24">
-        <v>1.059435578768893</v>
+        <v>1.026909117320953</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442544</v>
       </c>
       <c r="M24">
-        <v>1.068394720800091</v>
+        <v>1.02965945977875</v>
       </c>
       <c r="N24">
-        <v>1.061101131704768</v>
+        <v>1.017951074414701</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05636228292944</v>
+        <v>1.005337249955883</v>
       </c>
       <c r="D25">
-        <v>1.058313336410784</v>
+        <v>1.025992946021625</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.067558294092036</v>
+        <v>1.029970106207944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046205482963907</v>
+        <v>1.051578847074079</v>
       </c>
       <c r="J25">
-        <v>1.061834062410455</v>
+        <v>1.029686319786313</v>
       </c>
       <c r="K25">
-        <v>1.061296753885314</v>
+        <v>1.038200723372019</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005831</v>
       </c>
       <c r="M25">
-        <v>1.070514250599938</v>
+        <v>1.042120330665243</v>
       </c>
       <c r="N25">
-        <v>1.063341988573147</v>
+        <v>1.031148592467081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017793737279908</v>
+        <v>1.020454999800898</v>
       </c>
       <c r="D2">
-        <v>1.035575335397265</v>
+        <v>1.035861696213111</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.02889742302328</v>
       </c>
       <c r="F2">
-        <v>1.040443998048171</v>
+        <v>1.03881409082761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056050198892426</v>
+        <v>1.056179158754142</v>
       </c>
       <c r="J2">
-        <v>1.039454960612121</v>
+        <v>1.042040655787957</v>
       </c>
       <c r="K2">
-        <v>1.046560336953415</v>
+        <v>1.046843044859206</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.039968331761755</v>
       </c>
       <c r="M2">
-        <v>1.0513672347066</v>
+        <v>1.04975792436545</v>
       </c>
       <c r="N2">
-        <v>1.040931105883341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017635043190168</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047952412105361</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044192359890014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026381191783225</v>
+        <v>1.024307287623328</v>
       </c>
       <c r="D3">
-        <v>1.042186519161063</v>
+        <v>1.038456697127993</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.032248174749236</v>
       </c>
       <c r="F3">
-        <v>1.047678597799441</v>
+        <v>1.041911747356157</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059099474704239</v>
+        <v>1.057352614606564</v>
       </c>
       <c r="J3">
-        <v>1.046177631650608</v>
+        <v>1.044156552324097</v>
       </c>
       <c r="K3">
-        <v>1.052306636330417</v>
+        <v>1.048620072135971</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.042484413639659</v>
       </c>
       <c r="M3">
-        <v>1.057735710514431</v>
+        <v>1.052035038226181</v>
       </c>
       <c r="N3">
-        <v>1.047663323885804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018360913154287</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049754574479247</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045446209699693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031748101286257</v>
+        <v>1.026753193872082</v>
       </c>
       <c r="D4">
-        <v>1.046319697160373</v>
+        <v>1.040107743722991</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.034385947486343</v>
       </c>
       <c r="F4">
-        <v>1.052205410852618</v>
+        <v>1.043887406892741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060989277402056</v>
+        <v>1.05808812438889</v>
       </c>
       <c r="J4">
-        <v>1.050373134483307</v>
+        <v>1.045496453936586</v>
       </c>
       <c r="K4">
-        <v>1.055889466251087</v>
+        <v>1.049745052076128</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.044086348370173</v>
       </c>
       <c r="M4">
-        <v>1.061712088623957</v>
+        <v>1.053483503510165</v>
       </c>
       <c r="N4">
-        <v>1.051864784813756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01882072703043</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050900922280618</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04624254317216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03396179937497</v>
+        <v>1.0277746263756</v>
       </c>
       <c r="D5">
-        <v>1.048024714440286</v>
+        <v>1.040800219174933</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.035279828739435</v>
       </c>
       <c r="F5">
-        <v>1.054073748905975</v>
+        <v>1.044713086378484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061764875025444</v>
+        <v>1.058394510308222</v>
       </c>
       <c r="J5">
-        <v>1.052102156524568</v>
+        <v>1.046056869043898</v>
       </c>
       <c r="K5">
-        <v>1.057365163357826</v>
+        <v>1.050217052287371</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.044755909414562</v>
       </c>
       <c r="M5">
-        <v>1.063351224701477</v>
+        <v>1.054088388557383</v>
       </c>
       <c r="N5">
-        <v>1.053596262264637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019013972202862</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051379641307072</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046583389242819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034331072232623</v>
+        <v>1.02795041403937</v>
       </c>
       <c r="D6">
-        <v>1.048309140914617</v>
+        <v>1.040922102028535</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.035432219976431</v>
       </c>
       <c r="F6">
-        <v>1.05438547550342</v>
+        <v>1.044853519790836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061894023414302</v>
+        <v>1.058448996693369</v>
       </c>
       <c r="J6">
-        <v>1.052390488833837</v>
+        <v>1.046155369759237</v>
       </c>
       <c r="K6">
-        <v>1.057611201078439</v>
+        <v>1.050301895213151</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.044870662808171</v>
       </c>
       <c r="M6">
-        <v>1.063624591016976</v>
+        <v>1.054191775821081</v>
       </c>
       <c r="N6">
-        <v>1.053885004038857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019049023700672</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051461464178943</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046652046649519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031777844431043</v>
+        <v>1.026780086651849</v>
       </c>
       <c r="D7">
-        <v>1.046342605074888</v>
+        <v>1.040133095089181</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.034405276552297</v>
       </c>
       <c r="F7">
-        <v>1.052230509352291</v>
+        <v>1.043904345818227</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060999713813772</v>
+        <v>1.058101270137628</v>
       </c>
       <c r="J7">
-        <v>1.050396371591974</v>
+        <v>1.045516856481314</v>
       </c>
       <c r="K7">
-        <v>1.055909302161456</v>
+        <v>1.049767278608099</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.044102594648604</v>
       </c>
       <c r="M7">
-        <v>1.061734116111369</v>
+        <v>1.053497425042618</v>
       </c>
       <c r="N7">
-        <v>1.051888054921782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018830715795284</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05091194008404</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046278196313763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020737020125951</v>
+        <v>1.021783235554288</v>
       </c>
       <c r="D8">
-        <v>1.037840889082548</v>
+        <v>1.036764500128814</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.030045696402091</v>
       </c>
       <c r="F8">
-        <v>1.04292236747271</v>
+        <v>1.039874384498256</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057098633663697</v>
+        <v>1.056591881136373</v>
       </c>
       <c r="J8">
-        <v>1.041760321937345</v>
+        <v>1.042777884742004</v>
       </c>
       <c r="K8">
-        <v>1.048531562993585</v>
+        <v>1.04746847743088</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.040833496987285</v>
       </c>
       <c r="M8">
-        <v>1.053550698948849</v>
+        <v>1.050540019378633</v>
       </c>
       <c r="N8">
-        <v>1.043239741086075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017891803152259</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04857138129814</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044657313131026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9996820666008552</v>
+        <v>1.012582949839472</v>
       </c>
       <c r="D9">
-        <v>1.021646433462781</v>
+        <v>1.030579722393566</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>1.022108814178398</v>
       </c>
       <c r="F9">
-        <v>1.025223419154548</v>
+        <v>1.032534485371527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049532609903746</v>
+        <v>1.053730646749502</v>
       </c>
       <c r="J9">
-        <v>1.025246056913445</v>
+        <v>1.037699064471916</v>
       </c>
       <c r="K9">
-        <v>1.034397810296241</v>
+        <v>1.043195409892828</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>1.034853093562266</v>
       </c>
       <c r="M9">
-        <v>1.037920102642526</v>
+        <v>1.045120879969542</v>
       </c>
       <c r="N9">
-        <v>1.026702023911628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016147089321468</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044282530671413</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041632858203151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9843326153148492</v>
+        <v>1.006241076351586</v>
       </c>
       <c r="D10">
-        <v>1.009864493180722</v>
+        <v>1.026348665581536</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>1.01681978239927</v>
       </c>
       <c r="F10">
-        <v>1.012368251966488</v>
+        <v>1.027658637846962</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043936192088998</v>
+        <v>1.051735078286746</v>
       </c>
       <c r="J10">
-        <v>1.013181936317641</v>
+        <v>1.034209245822041</v>
       </c>
       <c r="K10">
-        <v>1.024057896384102</v>
+        <v>1.040257943322327</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>1.030891849099966</v>
       </c>
       <c r="M10">
-        <v>1.026517727783053</v>
+        <v>1.041545840756187</v>
       </c>
       <c r="N10">
-        <v>1.014620770880804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014960148102082</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041504386283286</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039572617399395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9773097792163397</v>
+        <v>1.003944790936824</v>
       </c>
       <c r="D11">
-        <v>1.004482723422953</v>
+        <v>1.024893996058142</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>1.015921527090877</v>
       </c>
       <c r="F11">
-        <v>1.006501262903948</v>
+        <v>1.026979037175525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041358074587726</v>
+        <v>1.051190377559317</v>
       </c>
       <c r="J11">
-        <v>1.007657940994255</v>
+        <v>1.033154377849795</v>
       </c>
       <c r="K11">
-        <v>1.019320594406672</v>
+        <v>1.039361237430397</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>1.030549305777758</v>
       </c>
       <c r="M11">
-        <v>1.021301607621577</v>
+        <v>1.041409493217515</v>
       </c>
       <c r="N11">
-        <v>1.009088930850448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014686035499457</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041831009293126</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038971278125594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9746379600363445</v>
+        <v>1.003263998552113</v>
       </c>
       <c r="D12">
-        <v>1.002436877444682</v>
+        <v>1.024487809040527</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>1.016116269791187</v>
       </c>
       <c r="F12">
-        <v>1.004271711490305</v>
+        <v>1.027266045969538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040374752292164</v>
+        <v>1.051106648654905</v>
       </c>
       <c r="J12">
-        <v>1.005555869954445</v>
+        <v>1.032930859619225</v>
       </c>
       <c r="K12">
-        <v>1.01751753917413</v>
+        <v>1.039160432671528</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>1.030941086605297</v>
       </c>
       <c r="M12">
-        <v>1.019317527307502</v>
+        <v>1.041888873534534</v>
       </c>
       <c r="N12">
-        <v>1.00698387462865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014673467272618</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042535315503244</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.0388293040765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9752140549349062</v>
+        <v>1.003798141443199</v>
       </c>
       <c r="D13">
-        <v>1.002877921544854</v>
+        <v>1.024880295022562</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.017177956441746</v>
       </c>
       <c r="F13">
-        <v>1.004752325227638</v>
+        <v>1.028334986285349</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040586884493696</v>
+        <v>1.051387649077053</v>
       </c>
       <c r="J13">
-        <v>1.006009135183626</v>
+        <v>1.033350585943149</v>
       </c>
       <c r="K13">
-        <v>1.017906342681396</v>
+        <v>1.039503374701192</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.031940336545624</v>
       </c>
       <c r="M13">
-        <v>1.019745311060829</v>
+        <v>1.042896465831355</v>
       </c>
       <c r="N13">
-        <v>1.007437783546447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014871739385309</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04360762575182</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039069293560114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770902582087325</v>
+        <v>1.004721614587905</v>
       </c>
       <c r="D14">
-        <v>1.004314598388888</v>
+        <v>1.025517365398075</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>1.018304892980324</v>
       </c>
       <c r="F14">
-        <v>1.006318026080748</v>
+        <v>1.029430568905542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041277332534478</v>
+        <v>1.051748649048226</v>
       </c>
       <c r="J14">
-        <v>1.007485240146139</v>
+        <v>1.033934654931569</v>
       </c>
       <c r="K14">
-        <v>1.019172466540782</v>
+        <v>1.039989948428176</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.032906196854017</v>
       </c>
       <c r="M14">
-        <v>1.021138583083862</v>
+        <v>1.043834290920153</v>
       </c>
       <c r="N14">
-        <v>1.008915984747319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015105793360121</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044521664217918</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039414730533812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9782376522629772</v>
+        <v>1.005217042070737</v>
       </c>
       <c r="D15">
-        <v>1.005193423785682</v>
+        <v>1.025853701388963</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>1.018786559876893</v>
       </c>
       <c r="F15">
-        <v>1.007275874320315</v>
+        <v>1.029888387235217</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041699255948801</v>
+        <v>1.05192157783793</v>
       </c>
       <c r="J15">
-        <v>1.008387895733511</v>
+        <v>1.034224599319958</v>
       </c>
       <c r="K15">
-        <v>1.019946672846755</v>
+        <v>1.04023467252857</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>1.033292667724292</v>
       </c>
       <c r="M15">
-        <v>1.021990697939942</v>
+        <v>1.044198913646019</v>
       </c>
       <c r="N15">
-        <v>1.00981992220916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015212571350934</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044847272071022</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03959359466459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9847902224572725</v>
+        <v>1.00779867577998</v>
       </c>
       <c r="D16">
-        <v>1.010215375163244</v>
+        <v>1.02756978828626</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>1.020826727810859</v>
       </c>
       <c r="F16">
-        <v>1.01275087225072</v>
+        <v>1.031775728531669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044103832357992</v>
+        <v>1.052727890735865</v>
       </c>
       <c r="J16">
-        <v>1.013541803816473</v>
+        <v>1.035630451160935</v>
       </c>
       <c r="K16">
-        <v>1.024366461971875</v>
+        <v>1.04142321580041</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>1.034794257990211</v>
       </c>
       <c r="M16">
-        <v>1.026857646860079</v>
+        <v>1.045558957755151</v>
       </c>
       <c r="N16">
-        <v>1.014981149432762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015680968891913</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045883677400245</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040437074644744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.988795323406739</v>
+        <v>1.009298372641984</v>
       </c>
       <c r="D17">
-        <v>1.0132874104732</v>
+        <v>1.02855574781599</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>1.021804023606099</v>
       </c>
       <c r="F17">
-        <v>1.016101344000393</v>
+        <v>1.032646815835259</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045569109140402</v>
+        <v>1.053155944434631</v>
       </c>
       <c r="J17">
-        <v>1.016690996136729</v>
+        <v>1.036403858695716</v>
       </c>
       <c r="K17">
-        <v>1.027066406385682</v>
+        <v>1.042080955058232</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.035440253015768</v>
       </c>
       <c r="M17">
-        <v>1.029832827716488</v>
+        <v>1.046105658087669</v>
       </c>
       <c r="N17">
-        <v>1.01813481396733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015918110616868</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046187283481154</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040904686371337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9910956163587005</v>
+        <v>1.009993301719201</v>
       </c>
       <c r="D18">
-        <v>1.015052607229437</v>
+        <v>1.028986235427131</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>1.021890913401978</v>
       </c>
       <c r="F18">
-        <v>1.018026999225699</v>
+        <v>1.032653131125676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046409024922845</v>
+        <v>1.053284075043229</v>
       </c>
       <c r="J18">
-        <v>1.018499293186162</v>
+        <v>1.036684018564756</v>
       </c>
       <c r="K18">
-        <v>1.028616474873648</v>
+        <v>1.042322707787138</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>1.035342184836811</v>
       </c>
       <c r="M18">
-        <v>1.031541652835821</v>
+        <v>1.045931066987831</v>
       </c>
       <c r="N18">
-        <v>1.019945679005988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015966745865167</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045812625211356</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041064047348158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9918740670612145</v>
+        <v>1.009972343554549</v>
       </c>
       <c r="D19">
-        <v>1.015650101635278</v>
+        <v>1.028931559819964</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>1.021165676053135</v>
       </c>
       <c r="F19">
-        <v>1.018678886188829</v>
+        <v>1.031869077144744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046692979340696</v>
+        <v>1.05315162768701</v>
       </c>
       <c r="J19">
-        <v>1.019111171301071</v>
+        <v>1.03653137283727</v>
       </c>
       <c r="K19">
-        <v>1.029140928443413</v>
+        <v>1.042206939576224</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>1.034566157131302</v>
       </c>
       <c r="M19">
-        <v>1.032119945473361</v>
+        <v>1.045097764810944</v>
       </c>
       <c r="N19">
-        <v>1.020558426058004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015856171292109</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044829754293597</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040988551343342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9883693631616068</v>
+        <v>1.007920557329228</v>
       </c>
       <c r="D20">
-        <v>1.012960600472853</v>
+        <v>1.02748536627666</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.018214039244802</v>
       </c>
       <c r="F20">
-        <v>1.01574486461433</v>
+        <v>1.028941494323725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045413441355147</v>
+        <v>1.052279693543483</v>
       </c>
       <c r="J20">
-        <v>1.01635610742986</v>
+        <v>1.035149532534188</v>
       </c>
       <c r="K20">
-        <v>1.026779318420287</v>
+        <v>1.041061543200088</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.031944003156388</v>
       </c>
       <c r="M20">
-        <v>1.029516396387462</v>
+        <v>1.042493841553236</v>
       </c>
       <c r="N20">
-        <v>1.017799449680085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015289131879537</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042244115611003</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040182619996776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9765395676964798</v>
+        <v>1.003051580861224</v>
       </c>
       <c r="D21">
-        <v>1.003892867206351</v>
+        <v>1.02422842048308</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.013985517071799</v>
       </c>
       <c r="F21">
-        <v>1.005858399906529</v>
+        <v>1.025012060521373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041074743660123</v>
+        <v>1.050693641172917</v>
       </c>
       <c r="J21">
-        <v>1.007051995573182</v>
+        <v>1.032422268478578</v>
       </c>
       <c r="K21">
-        <v>1.018800861450828</v>
+        <v>1.038764870660663</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>1.028706686910588</v>
       </c>
       <c r="M21">
-        <v>1.020729626665291</v>
+        <v>1.039534575876785</v>
       </c>
       <c r="N21">
-        <v>1.008482124917375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.0143453769183</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039861355129055</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03856201852306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9687317168119249</v>
+        <v>0.9999425982819469</v>
       </c>
       <c r="D22">
-        <v>0.9979177973516355</v>
+        <v>1.0221514376704</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651168</v>
+        <v>1.011363890103373</v>
       </c>
       <c r="F22">
-        <v>0.9993482199465047</v>
+        <v>1.02258661942669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038196651140874</v>
+        <v>1.049678406820385</v>
       </c>
       <c r="J22">
-        <v>1.000908408642309</v>
+        <v>1.030685310836174</v>
       </c>
       <c r="K22">
-        <v>1.013530616243873</v>
+        <v>1.037296482407097</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572522</v>
+        <v>1.02671353821736</v>
       </c>
       <c r="M22">
-        <v>1.014932599794174</v>
+        <v>1.037723528461898</v>
       </c>
       <c r="N22">
-        <v>1.00232981338838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013745651150577</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038428029825032</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037510377088519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9729084161893728</v>
+        <v>1.001584894237452</v>
       </c>
       <c r="D23">
-        <v>1.001113047060034</v>
+        <v>1.023241820515451</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>1.012749981875859</v>
       </c>
       <c r="F23">
-        <v>1.002829218782474</v>
+        <v>1.023870677349971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039737541245451</v>
+        <v>1.050211515973004</v>
       </c>
       <c r="J23">
-        <v>1.004195026985037</v>
+        <v>1.031598228077121</v>
       </c>
       <c r="K23">
-        <v>1.016350185393955</v>
+        <v>1.038064010370157</v>
       </c>
       <c r="L23">
-        <v>0.947539133028532</v>
+        <v>1.027765958675247</v>
       </c>
       <c r="M23">
-        <v>1.018033318557767</v>
+        <v>1.038681416213936</v>
       </c>
       <c r="N23">
-        <v>1.005621099106136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014057545976168</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039186135542393</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038043457054671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9885619464481907</v>
+        <v>1.00793223824017</v>
       </c>
       <c r="D24">
-        <v>1.013108353912756</v>
+        <v>1.027476876500951</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011828</v>
+        <v>1.018131335089494</v>
       </c>
       <c r="F24">
-        <v>1.015906030366013</v>
+        <v>1.028851870805426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045483826345862</v>
+        <v>1.05225916063793</v>
       </c>
       <c r="J24">
-        <v>1.016507517145312</v>
+        <v>1.035128325601568</v>
       </c>
       <c r="K24">
-        <v>1.026909117320953</v>
+        <v>1.041038058030586</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442544</v>
+        <v>1.031847353927201</v>
       </c>
       <c r="M24">
-        <v>1.02965945977875</v>
+        <v>1.042390576426528</v>
       </c>
       <c r="N24">
-        <v>1.017951074414701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015269447061391</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042121686537354</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040138767502128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005337249955883</v>
+        <v>1.015029043440951</v>
       </c>
       <c r="D25">
-        <v>1.025992946021625</v>
+        <v>1.032231425475758</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>1.024203394204536</v>
       </c>
       <c r="F25">
-        <v>1.029970106207944</v>
+        <v>1.034469931907409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051578847074079</v>
+        <v>1.054507310209159</v>
       </c>
       <c r="J25">
-        <v>1.029686319786313</v>
+        <v>1.039060994273522</v>
       </c>
       <c r="K25">
-        <v>1.038200723372019</v>
+        <v>1.044349177096596</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005831</v>
+        <v>1.036437252884471</v>
       </c>
       <c r="M25">
-        <v>1.042120330665243</v>
+        <v>1.046555715197803</v>
       </c>
       <c r="N25">
-        <v>1.031148592467081</v>
+        <v>1.016619972423689</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045418099752298</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042477024565198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020454999800898</v>
+        <v>1.018902276062305</v>
       </c>
       <c r="D2">
-        <v>1.035861696213111</v>
+        <v>1.033752056784758</v>
       </c>
       <c r="E2">
-        <v>1.02889742302328</v>
+        <v>1.02849023405222</v>
       </c>
       <c r="F2">
-        <v>1.03881409082761</v>
+        <v>1.038210144132076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056179158754142</v>
+        <v>1.055007930344371</v>
       </c>
       <c r="J2">
-        <v>1.042040655787957</v>
+        <v>1.040531956489009</v>
       </c>
       <c r="K2">
-        <v>1.046843044859206</v>
+        <v>1.04476037599345</v>
       </c>
       <c r="L2">
-        <v>1.039968331761755</v>
+        <v>1.039566426191569</v>
       </c>
       <c r="M2">
-        <v>1.04975792436545</v>
+        <v>1.049161630149449</v>
       </c>
       <c r="N2">
-        <v>1.017635043190168</v>
+        <v>1.017778321934742</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047952412105361</v>
+        <v>1.047480489877099</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044192359890014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042728465279167</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023883112323835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024307287623328</v>
+        <v>1.022543637178191</v>
       </c>
       <c r="D3">
-        <v>1.038456697127993</v>
+        <v>1.036103496874684</v>
       </c>
       <c r="E3">
-        <v>1.032248174749236</v>
+        <v>1.031765942876886</v>
       </c>
       <c r="F3">
-        <v>1.041911747356157</v>
+        <v>1.04122494310976</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057352614606564</v>
+        <v>1.056037649485968</v>
       </c>
       <c r="J3">
-        <v>1.044156552324097</v>
+        <v>1.042438052256579</v>
       </c>
       <c r="K3">
-        <v>1.048620072135971</v>
+        <v>1.046294362136537</v>
       </c>
       <c r="L3">
-        <v>1.042484413639659</v>
+        <v>1.042007886752037</v>
       </c>
       <c r="M3">
-        <v>1.052035038226181</v>
+        <v>1.051356175836655</v>
       </c>
       <c r="N3">
-        <v>1.018360913154287</v>
+        <v>1.018293092369312</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049754574479247</v>
+        <v>1.049217307004143</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045446209699693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043810190035361</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024195923751962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026753193872082</v>
+        <v>1.024856891386908</v>
       </c>
       <c r="D4">
-        <v>1.040107743722991</v>
+        <v>1.037600752082662</v>
       </c>
       <c r="E4">
-        <v>1.034385947486343</v>
+        <v>1.033856912115542</v>
       </c>
       <c r="F4">
-        <v>1.043887406892741</v>
+        <v>1.043148533298604</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05808812438889</v>
+        <v>1.056682249255163</v>
       </c>
       <c r="J4">
-        <v>1.045496453936586</v>
+        <v>1.043645441129812</v>
       </c>
       <c r="K4">
-        <v>1.049745052076128</v>
+        <v>1.047265599030367</v>
       </c>
       <c r="L4">
-        <v>1.044086348370173</v>
+        <v>1.043563189893938</v>
       </c>
       <c r="M4">
-        <v>1.053483503510165</v>
+        <v>1.052752657441785</v>
       </c>
       <c r="N4">
-        <v>1.01882072703043</v>
+        <v>1.018619391425202</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050900922280618</v>
+        <v>1.05032251458637</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04624254317216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044497899438714</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024391607057692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0277746263756</v>
+        <v>1.025823038082824</v>
       </c>
       <c r="D5">
-        <v>1.040800219174933</v>
+        <v>1.038229115598726</v>
       </c>
       <c r="E5">
-        <v>1.035279828739435</v>
+        <v>1.034731251624234</v>
       </c>
       <c r="F5">
-        <v>1.044713086378484</v>
+        <v>1.043952462447394</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058394510308222</v>
+        <v>1.056950676963026</v>
       </c>
       <c r="J5">
-        <v>1.046056869043898</v>
+        <v>1.044150510073328</v>
       </c>
       <c r="K5">
-        <v>1.050217052287371</v>
+        <v>1.047673447027509</v>
       </c>
       <c r="L5">
-        <v>1.044755909414562</v>
+        <v>1.044213262244048</v>
       </c>
       <c r="M5">
-        <v>1.054088388557383</v>
+        <v>1.053335808018866</v>
       </c>
       <c r="N5">
-        <v>1.019013972202862</v>
+        <v>1.018756544701664</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051379641307072</v>
+        <v>1.050784032848069</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046583389242819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044794101255131</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024473882257652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02795041403937</v>
+        <v>1.025989113279942</v>
       </c>
       <c r="D6">
-        <v>1.040922102028535</v>
+        <v>1.038339874813609</v>
       </c>
       <c r="E6">
-        <v>1.035432219976431</v>
+        <v>1.034880057058607</v>
       </c>
       <c r="F6">
-        <v>1.044853519790836</v>
+        <v>1.044089004501891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058448996693369</v>
+        <v>1.056998546535508</v>
       </c>
       <c r="J6">
-        <v>1.046155369759237</v>
+        <v>1.044239291541638</v>
       </c>
       <c r="K6">
-        <v>1.050301895213151</v>
+        <v>1.047747159914115</v>
       </c>
       <c r="L6">
-        <v>1.044870662808171</v>
+        <v>1.044324440979826</v>
       </c>
       <c r="M6">
-        <v>1.054191775821081</v>
+        <v>1.053435308013184</v>
       </c>
       <c r="N6">
-        <v>1.019049023700672</v>
+        <v>1.018781389163795</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051461464178943</v>
+        <v>1.050862779315335</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046652046649519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044855763439474</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024489542319966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026780086651849</v>
+        <v>1.024891160575778</v>
       </c>
       <c r="D7">
-        <v>1.040133095089181</v>
+        <v>1.037631044837711</v>
       </c>
       <c r="E7">
-        <v>1.034405276552297</v>
+        <v>1.03387942774863</v>
       </c>
       <c r="F7">
-        <v>1.043904345818227</v>
+        <v>1.043168261494143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058101270137628</v>
+        <v>1.056699027958518</v>
       </c>
       <c r="J7">
-        <v>1.045516856481314</v>
+        <v>1.043673023909233</v>
       </c>
       <c r="K7">
-        <v>1.049767278608099</v>
+        <v>1.047292701720888</v>
       </c>
       <c r="L7">
-        <v>1.044102594648604</v>
+        <v>1.043582585104663</v>
       </c>
       <c r="M7">
-        <v>1.053497425042618</v>
+        <v>1.052769334938486</v>
       </c>
       <c r="N7">
-        <v>1.018830715795284</v>
+        <v>1.018655361895046</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05091194008404</v>
+        <v>1.050335713530002</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046278196313763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044539011754185</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024400335153211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021783235554288</v>
+        <v>1.020185523703905</v>
       </c>
       <c r="D8">
-        <v>1.036764500128814</v>
+        <v>1.034591487059972</v>
       </c>
       <c r="E8">
-        <v>1.030045696402091</v>
+        <v>1.029625289834525</v>
       </c>
       <c r="F8">
-        <v>1.039874384498256</v>
+        <v>1.039252786662668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056591881136373</v>
+        <v>1.05538555905811</v>
       </c>
       <c r="J8">
-        <v>1.042777884742004</v>
+        <v>1.041223961544794</v>
       </c>
       <c r="K8">
-        <v>1.04746847743088</v>
+        <v>1.045322426310798</v>
       </c>
       <c r="L8">
-        <v>1.040833496987285</v>
+        <v>1.040418380743072</v>
       </c>
       <c r="M8">
-        <v>1.050540019378633</v>
+        <v>1.049926062523451</v>
       </c>
       <c r="N8">
-        <v>1.017891803152259</v>
+        <v>1.018048473052678</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04857138129814</v>
+        <v>1.048085480814777</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044657313131026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043150882327548</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024004208198331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012582949839472</v>
+        <v>1.011501827280921</v>
       </c>
       <c r="D9">
-        <v>1.030579722393566</v>
+        <v>1.028997058701388</v>
       </c>
       <c r="E9">
-        <v>1.022108814178398</v>
+        <v>1.021876234645291</v>
       </c>
       <c r="F9">
-        <v>1.032534485371527</v>
+        <v>1.032116428420971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053730646749502</v>
+        <v>1.05287215192214</v>
       </c>
       <c r="J9">
-        <v>1.037699064471916</v>
+        <v>1.03665486333489</v>
       </c>
       <c r="K9">
-        <v>1.043195409892828</v>
+        <v>1.041636566871328</v>
       </c>
       <c r="L9">
-        <v>1.034853093562266</v>
+        <v>1.034624083053044</v>
       </c>
       <c r="M9">
-        <v>1.045120879969542</v>
+        <v>1.044709075900945</v>
       </c>
       <c r="N9">
-        <v>1.016147089321468</v>
+        <v>1.016823608716813</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044282530671413</v>
+        <v>1.043956616987654</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041632858203151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040541336450571</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023237331357862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006241076351586</v>
+        <v>1.005562233091954</v>
       </c>
       <c r="D10">
-        <v>1.026348665581536</v>
+        <v>1.025205566750226</v>
       </c>
       <c r="E10">
-        <v>1.01681978239927</v>
+        <v>1.01673821431243</v>
       </c>
       <c r="F10">
-        <v>1.027658637846962</v>
+        <v>1.027398791596879</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051735078286746</v>
+        <v>1.051137940015016</v>
       </c>
       <c r="J10">
-        <v>1.034209245822041</v>
+        <v>1.033556891322819</v>
       </c>
       <c r="K10">
-        <v>1.040257943322327</v>
+        <v>1.039134166755723</v>
       </c>
       <c r="L10">
-        <v>1.030891849099966</v>
+        <v>1.030811691540504</v>
       </c>
       <c r="M10">
-        <v>1.041545840756187</v>
+        <v>1.041290367500157</v>
       </c>
       <c r="N10">
-        <v>1.014960148102082</v>
+        <v>1.016115224640088</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041504386283286</v>
+        <v>1.041302209098609</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039572617399395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038790397968017</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022715418384736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003944790936824</v>
+        <v>1.003451074411462</v>
       </c>
       <c r="D11">
-        <v>1.024893996058142</v>
+        <v>1.023933809604138</v>
       </c>
       <c r="E11">
-        <v>1.015921527090877</v>
+        <v>1.015886102534776</v>
       </c>
       <c r="F11">
-        <v>1.026979037175525</v>
+        <v>1.026782920085378</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051190377559317</v>
+        <v>1.050707393177171</v>
       </c>
       <c r="J11">
-        <v>1.033154377849795</v>
+        <v>1.032680986077406</v>
       </c>
       <c r="K11">
-        <v>1.039361237430397</v>
+        <v>1.038418056425354</v>
       </c>
       <c r="L11">
-        <v>1.030549305777758</v>
+        <v>1.030514522353987</v>
       </c>
       <c r="M11">
-        <v>1.041409493217515</v>
+        <v>1.041216827871137</v>
       </c>
       <c r="N11">
-        <v>1.014686035499457</v>
+        <v>1.016166964742431</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041831009293126</v>
+        <v>1.041678613353924</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038971278125594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038319971254165</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022615647723672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003263998552113</v>
+        <v>1.002824713040676</v>
       </c>
       <c r="D12">
-        <v>1.024487809040527</v>
+        <v>1.023578596692131</v>
       </c>
       <c r="E12">
-        <v>1.016116269791187</v>
+        <v>1.016077741177851</v>
       </c>
       <c r="F12">
-        <v>1.027266045969538</v>
+        <v>1.027083573948755</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051106648654905</v>
+        <v>1.050657093706012</v>
       </c>
       <c r="J12">
-        <v>1.032930859619225</v>
+        <v>1.032510005191304</v>
       </c>
       <c r="K12">
-        <v>1.039160432671528</v>
+        <v>1.038267593012419</v>
       </c>
       <c r="L12">
-        <v>1.030941086605297</v>
+        <v>1.030903265988316</v>
       </c>
       <c r="M12">
-        <v>1.041888873534534</v>
+        <v>1.041709661339818</v>
       </c>
       <c r="N12">
-        <v>1.014673467272618</v>
+        <v>1.016262595512329</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042535315503244</v>
+        <v>1.042393608461584</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.0388293040765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038213591847959</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022617159369556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003798141443199</v>
+        <v>1.003300591771537</v>
       </c>
       <c r="D13">
-        <v>1.024880295022562</v>
+        <v>1.023912578832728</v>
       </c>
       <c r="E13">
-        <v>1.017177956441746</v>
+        <v>1.017094188747844</v>
       </c>
       <c r="F13">
-        <v>1.028334986285349</v>
+        <v>1.028123966421391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051387649077053</v>
+        <v>1.050903751701338</v>
       </c>
       <c r="J13">
-        <v>1.033350585943149</v>
+        <v>1.032873805866575</v>
       </c>
       <c r="K13">
-        <v>1.039503374701192</v>
+        <v>1.038553010556125</v>
       </c>
       <c r="L13">
-        <v>1.031940336545624</v>
+        <v>1.031858098927964</v>
       </c>
       <c r="M13">
-        <v>1.042896465831355</v>
+        <v>1.042689193229773</v>
       </c>
       <c r="N13">
-        <v>1.014871739385309</v>
+        <v>1.016368425368925</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04360762575182</v>
+        <v>1.043443771584617</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.039069293560114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038412663187624</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022702169379227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004721614587905</v>
+        <v>1.004132718069766</v>
       </c>
       <c r="D14">
-        <v>1.025517365398075</v>
+        <v>1.02445975888167</v>
       </c>
       <c r="E14">
-        <v>1.018304892980324</v>
+        <v>1.018173133988049</v>
       </c>
       <c r="F14">
-        <v>1.029430568905542</v>
+        <v>1.029181505823211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051748649048226</v>
+        <v>1.0512102701722</v>
       </c>
       <c r="J14">
-        <v>1.033934654931569</v>
+        <v>1.033369985982149</v>
       </c>
       <c r="K14">
-        <v>1.039989948428176</v>
+        <v>1.038951069870365</v>
       </c>
       <c r="L14">
-        <v>1.032906196854017</v>
+        <v>1.032776811407942</v>
       </c>
       <c r="M14">
-        <v>1.043834290920153</v>
+        <v>1.043589590408236</v>
       </c>
       <c r="N14">
-        <v>1.015105793360121</v>
+        <v>1.016448778996562</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044521664217918</v>
+        <v>1.044328248258032</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039414730533812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038695651786761</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022800188242597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005217042070737</v>
+        <v>1.004581432027413</v>
       </c>
       <c r="D15">
-        <v>1.025853701388963</v>
+        <v>1.024750346189452</v>
       </c>
       <c r="E15">
-        <v>1.018786559876893</v>
+        <v>1.018634819910552</v>
       </c>
       <c r="F15">
-        <v>1.029888387235217</v>
+        <v>1.029621069499107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05192157783793</v>
+        <v>1.051355130965112</v>
       </c>
       <c r="J15">
-        <v>1.034224599319958</v>
+        <v>1.033614908920808</v>
       </c>
       <c r="K15">
-        <v>1.04023467252857</v>
+        <v>1.039150706873457</v>
       </c>
       <c r="L15">
-        <v>1.033292667724292</v>
+        <v>1.033143639318691</v>
       </c>
       <c r="M15">
-        <v>1.044198913646019</v>
+        <v>1.043936241113121</v>
       </c>
       <c r="N15">
-        <v>1.015212571350934</v>
+        <v>1.016476533560556</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044847272071022</v>
+        <v>1.044639656100234</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03959359466459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038843208237417</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022845149648866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00779867577998</v>
+        <v>1.006940327772922</v>
       </c>
       <c r="D16">
-        <v>1.02756978828626</v>
+        <v>1.026245813918347</v>
       </c>
       <c r="E16">
-        <v>1.020826727810859</v>
+        <v>1.02059809130577</v>
       </c>
       <c r="F16">
-        <v>1.031775728531669</v>
+        <v>1.031425600943132</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052727890735865</v>
+        <v>1.05202536473925</v>
       </c>
       <c r="J16">
-        <v>1.035630451160935</v>
+        <v>1.034805351925328</v>
       </c>
       <c r="K16">
-        <v>1.04142321580041</v>
+        <v>1.040121492486789</v>
       </c>
       <c r="L16">
-        <v>1.034794257990211</v>
+        <v>1.034569524495592</v>
       </c>
       <c r="M16">
-        <v>1.045558957755151</v>
+        <v>1.045214645759598</v>
       </c>
       <c r="N16">
-        <v>1.015680968891913</v>
+        <v>1.016578969201003</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045883677400245</v>
+        <v>1.045611525934635</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040437074644744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039533026368816</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023041959772285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009298372641984</v>
+        <v>1.008327791461354</v>
       </c>
       <c r="D17">
-        <v>1.02855574781599</v>
+        <v>1.02711706944184</v>
       </c>
       <c r="E17">
-        <v>1.021804023606099</v>
+        <v>1.021543235736545</v>
       </c>
       <c r="F17">
-        <v>1.032646815835259</v>
+        <v>1.032255903397761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053155944434631</v>
+        <v>1.052382884608648</v>
       </c>
       <c r="J17">
-        <v>1.036403858695716</v>
+        <v>1.035469664150896</v>
       </c>
       <c r="K17">
-        <v>1.042080955058232</v>
+        <v>1.040665776324991</v>
       </c>
       <c r="L17">
-        <v>1.035440253015768</v>
+        <v>1.035183791319909</v>
       </c>
       <c r="M17">
-        <v>1.046105658087669</v>
+        <v>1.045721057824522</v>
       </c>
       <c r="N17">
-        <v>1.015918110616868</v>
+        <v>1.01664540413215</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046187283481154</v>
+        <v>1.045883257226217</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040904686371337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039920669585424</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023143148515046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009993301719201</v>
+        <v>1.008983771958872</v>
       </c>
       <c r="D18">
-        <v>1.028986235427131</v>
+        <v>1.027505661453359</v>
       </c>
       <c r="E18">
-        <v>1.021890913401978</v>
+        <v>1.021629555689417</v>
       </c>
       <c r="F18">
-        <v>1.032653131125676</v>
+        <v>1.032250324694846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053284075043229</v>
+        <v>1.052484913439086</v>
       </c>
       <c r="J18">
-        <v>1.036684018564756</v>
+        <v>1.035711627335993</v>
       </c>
       <c r="K18">
-        <v>1.042322707787138</v>
+        <v>1.040865920872262</v>
       </c>
       <c r="L18">
-        <v>1.035342184836811</v>
+        <v>1.035085094906644</v>
       </c>
       <c r="M18">
-        <v>1.045931066987831</v>
+        <v>1.045534664705525</v>
       </c>
       <c r="N18">
-        <v>1.015966745865167</v>
+        <v>1.016639884334168</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045812625211356</v>
+        <v>1.045499204725749</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041064047348158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040049472487292</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023161863040709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009972343554549</v>
+        <v>1.008981194383897</v>
       </c>
       <c r="D19">
-        <v>1.028931559819964</v>
+        <v>1.027468487539032</v>
       </c>
       <c r="E19">
-        <v>1.021165676053135</v>
+        <v>1.020928809703417</v>
       </c>
       <c r="F19">
-        <v>1.031869077144744</v>
+        <v>1.031477459570621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05315162768701</v>
+        <v>1.05236208937335</v>
       </c>
       <c r="J19">
-        <v>1.03653137283727</v>
+        <v>1.035576474525054</v>
       </c>
       <c r="K19">
-        <v>1.042206939576224</v>
+        <v>1.040767250668266</v>
       </c>
       <c r="L19">
-        <v>1.034566157131302</v>
+        <v>1.034333144906703</v>
       </c>
       <c r="M19">
-        <v>1.045097764810944</v>
+        <v>1.044712352353429</v>
       </c>
       <c r="N19">
-        <v>1.015856171292109</v>
+        <v>1.016556028631086</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044829754293597</v>
+        <v>1.044524924424744</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040988551343342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039986692098879</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023111309171193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007920557329228</v>
+        <v>1.007106650687275</v>
       </c>
       <c r="D20">
-        <v>1.02748536627666</v>
+        <v>1.026205180692932</v>
       </c>
       <c r="E20">
-        <v>1.018214039244802</v>
+        <v>1.018076264111757</v>
       </c>
       <c r="F20">
-        <v>1.028941494323725</v>
+        <v>1.028627335961416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052279693543483</v>
+        <v>1.051598989436449</v>
       </c>
       <c r="J20">
-        <v>1.035149532534188</v>
+        <v>1.03436634510707</v>
       </c>
       <c r="K20">
-        <v>1.041061543200088</v>
+        <v>1.03980237984415</v>
       </c>
       <c r="L20">
-        <v>1.031944003156388</v>
+        <v>1.031808540581159</v>
       </c>
       <c r="M20">
-        <v>1.042493841553236</v>
+        <v>1.042184817090358</v>
       </c>
       <c r="N20">
-        <v>1.015289131879537</v>
+        <v>1.016236110057872</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042244115611003</v>
+        <v>1.041999556041149</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040182619996776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039308789664108</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02285849989649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003051580861224</v>
+        <v>1.002679224299502</v>
       </c>
       <c r="D21">
-        <v>1.02422842048308</v>
+        <v>1.023384421762412</v>
       </c>
       <c r="E21">
-        <v>1.013985517071799</v>
+        <v>1.014040262043596</v>
       </c>
       <c r="F21">
-        <v>1.025012060521373</v>
+        <v>1.024874924789366</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050693641172917</v>
+        <v>1.050280588628108</v>
       </c>
       <c r="J21">
-        <v>1.032422268478578</v>
+        <v>1.032065353774606</v>
       </c>
       <c r="K21">
-        <v>1.038764870660663</v>
+        <v>1.037935911059908</v>
       </c>
       <c r="L21">
-        <v>1.028706686910588</v>
+        <v>1.028760431703025</v>
       </c>
       <c r="M21">
-        <v>1.039534575876785</v>
+        <v>1.039399876719751</v>
       </c>
       <c r="N21">
-        <v>1.0143453769183</v>
+        <v>1.016042761092141</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039861355129055</v>
+        <v>1.039754749675111</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03856201852306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037992686285318</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022470580862315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9999425982819469</v>
+        <v>0.9998502214520884</v>
       </c>
       <c r="D22">
-        <v>1.0221514376704</v>
+        <v>1.021584203421161</v>
       </c>
       <c r="E22">
-        <v>1.011363890103373</v>
+        <v>1.011544054977541</v>
       </c>
       <c r="F22">
-        <v>1.02258661942669</v>
+        <v>1.022561981817949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049678406820385</v>
+        <v>1.049434435381523</v>
       </c>
       <c r="J22">
-        <v>1.030685310836174</v>
+        <v>1.030596989720122</v>
       </c>
       <c r="K22">
-        <v>1.037296482407097</v>
+        <v>1.036739866159291</v>
       </c>
       <c r="L22">
-        <v>1.02671353821736</v>
+        <v>1.026890239049313</v>
       </c>
       <c r="M22">
-        <v>1.037723528461898</v>
+        <v>1.037699351210677</v>
       </c>
       <c r="N22">
-        <v>1.013745651150577</v>
+        <v>1.015912934208858</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038428029825032</v>
+        <v>1.03840889509626</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037510377088519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037132300933219</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022220534445364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001584894237452</v>
+        <v>1.001330560165715</v>
       </c>
       <c r="D23">
-        <v>1.023241820515451</v>
+        <v>1.022517830270333</v>
       </c>
       <c r="E23">
-        <v>1.012749981875859</v>
+        <v>1.012856137150171</v>
       </c>
       <c r="F23">
-        <v>1.023870677349971</v>
+        <v>1.023781267910659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050211515973004</v>
+        <v>1.049871111339699</v>
       </c>
       <c r="J23">
-        <v>1.031598228077121</v>
+        <v>1.031354730506468</v>
       </c>
       <c r="K23">
-        <v>1.038064010370157</v>
+        <v>1.03735322612593</v>
       </c>
       <c r="L23">
-        <v>1.027765958675247</v>
+        <v>1.027870126988412</v>
       </c>
       <c r="M23">
-        <v>1.038681416213936</v>
+        <v>1.038593633734237</v>
       </c>
       <c r="N23">
-        <v>1.014057545976168</v>
+        <v>1.015932956036477</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039186135542393</v>
+        <v>1.03911666146505</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038043457054671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037555433260047</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022345105823526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00793223824017</v>
+        <v>1.007120530931004</v>
       </c>
       <c r="D24">
-        <v>1.027476876500951</v>
+        <v>1.026198324821695</v>
       </c>
       <c r="E24">
-        <v>1.018131335089494</v>
+        <v>1.01799776666528</v>
       </c>
       <c r="F24">
-        <v>1.028851870805426</v>
+        <v>1.028539734168746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05225916063793</v>
+        <v>1.051579443655164</v>
       </c>
       <c r="J24">
-        <v>1.035128325601568</v>
+        <v>1.034347210465169</v>
       </c>
       <c r="K24">
-        <v>1.041038058030586</v>
+        <v>1.039780475290107</v>
       </c>
       <c r="L24">
-        <v>1.031847353927201</v>
+        <v>1.031716025032636</v>
       </c>
       <c r="M24">
-        <v>1.042390576426528</v>
+        <v>1.042083535256363</v>
       </c>
       <c r="N24">
-        <v>1.015269447061391</v>
+        <v>1.01621915970416</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042121686537354</v>
+        <v>1.041878684542055</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040138767502128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039263373414771</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022846555011499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015029043440951</v>
+        <v>1.013796566587106</v>
       </c>
       <c r="D25">
-        <v>1.032231425475758</v>
+        <v>1.030481842788446</v>
       </c>
       <c r="E25">
-        <v>1.024203394204536</v>
+        <v>1.023913000485895</v>
       </c>
       <c r="F25">
-        <v>1.034469931907409</v>
+        <v>1.033991617413705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054507310209159</v>
+        <v>1.053549542094082</v>
       </c>
       <c r="J25">
-        <v>1.039060994273522</v>
+        <v>1.037868377868274</v>
       </c>
       <c r="K25">
-        <v>1.044349177096596</v>
+        <v>1.042624702840319</v>
       </c>
       <c r="L25">
-        <v>1.036437252884471</v>
+        <v>1.036151102338001</v>
       </c>
       <c r="M25">
-        <v>1.046555715197803</v>
+        <v>1.046084216846849</v>
       </c>
       <c r="N25">
-        <v>1.016619972423689</v>
+        <v>1.017120797566007</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045418099752298</v>
+        <v>1.045044942849101</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042477024565198</v>
+        <v>1.041271207992067</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023447243833198</v>
       </c>
     </row>
   </sheetData>
